--- a/productivity.xlsx
+++ b/productivity.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28810"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eodell\Documents\GitHub\productivity-trap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanodell/Documents/GitHub/productivity-trap/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24585" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24580" windowHeight="9200"/>
   </bookViews>
   <sheets>
     <sheet name="Cleaner" sheetId="3" r:id="rId1"/>
     <sheet name="OECD.Stat export" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -26,7 +37,7 @@
     <author>MyOECD</author>
   </authors>
   <commentList>
-    <comment ref="AT8" authorId="0" shapeId="0">
+    <comment ref="AT8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU8" authorId="0" shapeId="0">
+    <comment ref="AU8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV8" authorId="0" shapeId="0">
+    <comment ref="AV8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW8" authorId="0" shapeId="0">
+    <comment ref="AW8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC20" authorId="0" shapeId="0">
+    <comment ref="AC20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR20" authorId="0" shapeId="0">
+    <comment ref="AR20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS22" authorId="0" shapeId="0">
+    <comment ref="AS22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN27" authorId="0" shapeId="0">
+    <comment ref="AN27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH28" authorId="0" shapeId="0">
+    <comment ref="AH28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV29" authorId="0" shapeId="0">
+    <comment ref="AV29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW29" authorId="0" shapeId="0">
+    <comment ref="AW29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR33" authorId="0" shapeId="0">
+    <comment ref="AR33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y39" authorId="0" shapeId="0">
+    <comment ref="Y39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW40" authorId="0" shapeId="0">
+    <comment ref="AW40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV48" authorId="0" shapeId="0">
+    <comment ref="AV48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -684,9 +695,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
+    <numFmt numFmtId="169" formatCode="#,##0.000000_ ;\-#,##0.000000\ "/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -868,7 +880,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1078,8 +1090,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1246,6 +1264,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1291,7 +1324,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1367,6 +1400,12 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="24" fillId="38" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1423,6 +1462,6576 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="OECD.Stat export"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Time</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>1970</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>1971</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>1972</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>1973</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v>1974</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>1975</v>
+          </cell>
+          <cell r="J6" t="str">
+            <v>1976</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>1977</v>
+          </cell>
+          <cell r="L6" t="str">
+            <v>1978</v>
+          </cell>
+          <cell r="M6" t="str">
+            <v>1979</v>
+          </cell>
+          <cell r="N6" t="str">
+            <v>1980</v>
+          </cell>
+          <cell r="O6" t="str">
+            <v>1981</v>
+          </cell>
+          <cell r="P6" t="str">
+            <v>1982</v>
+          </cell>
+          <cell r="Q6" t="str">
+            <v>1983</v>
+          </cell>
+          <cell r="R6" t="str">
+            <v>1984</v>
+          </cell>
+          <cell r="S6" t="str">
+            <v>1985</v>
+          </cell>
+          <cell r="T6" t="str">
+            <v>1986</v>
+          </cell>
+          <cell r="U6" t="str">
+            <v>1987</v>
+          </cell>
+          <cell r="V6" t="str">
+            <v>1988</v>
+          </cell>
+          <cell r="W6" t="str">
+            <v>1989</v>
+          </cell>
+          <cell r="X6" t="str">
+            <v>1990</v>
+          </cell>
+          <cell r="Y6" t="str">
+            <v>1991</v>
+          </cell>
+          <cell r="Z6" t="str">
+            <v>1992</v>
+          </cell>
+          <cell r="AA6" t="str">
+            <v>1993</v>
+          </cell>
+          <cell r="AB6" t="str">
+            <v>1994</v>
+          </cell>
+          <cell r="AC6" t="str">
+            <v>1995</v>
+          </cell>
+          <cell r="AD6" t="str">
+            <v>1996</v>
+          </cell>
+          <cell r="AE6" t="str">
+            <v>1997</v>
+          </cell>
+          <cell r="AF6" t="str">
+            <v>1998</v>
+          </cell>
+          <cell r="AG6" t="str">
+            <v>1999</v>
+          </cell>
+          <cell r="AH6" t="str">
+            <v>2000</v>
+          </cell>
+          <cell r="AI6" t="str">
+            <v>2001</v>
+          </cell>
+          <cell r="AJ6" t="str">
+            <v>2002</v>
+          </cell>
+          <cell r="AK6" t="str">
+            <v>2003</v>
+          </cell>
+          <cell r="AL6" t="str">
+            <v>2004</v>
+          </cell>
+          <cell r="AM6" t="str">
+            <v>2005</v>
+          </cell>
+          <cell r="AN6" t="str">
+            <v>2006</v>
+          </cell>
+          <cell r="AO6" t="str">
+            <v>2007</v>
+          </cell>
+          <cell r="AP6" t="str">
+            <v>2008</v>
+          </cell>
+          <cell r="AQ6" t="str">
+            <v>2009</v>
+          </cell>
+          <cell r="AR6" t="str">
+            <v>2010</v>
+          </cell>
+          <cell r="AS6" t="str">
+            <v>2011</v>
+          </cell>
+          <cell r="AT6" t="str">
+            <v>2012</v>
+          </cell>
+          <cell r="AU6" t="str">
+            <v>2013</v>
+          </cell>
+          <cell r="AV6" t="str">
+            <v>2014</v>
+          </cell>
+          <cell r="AW6" t="str">
+            <v>2015</v>
+          </cell>
+          <cell r="AX6" t="str">
+            <v>2016</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Country</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>i</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v/>
+          </cell>
+          <cell r="E7" t="str">
+            <v/>
+          </cell>
+          <cell r="F7" t="str">
+            <v/>
+          </cell>
+          <cell r="G7" t="str">
+            <v/>
+          </cell>
+          <cell r="H7" t="str">
+            <v/>
+          </cell>
+          <cell r="I7" t="str">
+            <v/>
+          </cell>
+          <cell r="J7" t="str">
+            <v/>
+          </cell>
+          <cell r="K7" t="str">
+            <v/>
+          </cell>
+          <cell r="L7" t="str">
+            <v/>
+          </cell>
+          <cell r="M7" t="str">
+            <v/>
+          </cell>
+          <cell r="N7" t="str">
+            <v/>
+          </cell>
+          <cell r="O7" t="str">
+            <v/>
+          </cell>
+          <cell r="P7" t="str">
+            <v/>
+          </cell>
+          <cell r="Q7" t="str">
+            <v/>
+          </cell>
+          <cell r="R7" t="str">
+            <v/>
+          </cell>
+          <cell r="S7" t="str">
+            <v/>
+          </cell>
+          <cell r="T7" t="str">
+            <v/>
+          </cell>
+          <cell r="U7" t="str">
+            <v/>
+          </cell>
+          <cell r="V7" t="str">
+            <v/>
+          </cell>
+          <cell r="W7" t="str">
+            <v/>
+          </cell>
+          <cell r="X7" t="str">
+            <v/>
+          </cell>
+          <cell r="Y7" t="str">
+            <v/>
+          </cell>
+          <cell r="Z7" t="str">
+            <v/>
+          </cell>
+          <cell r="AA7" t="str">
+            <v/>
+          </cell>
+          <cell r="AB7" t="str">
+            <v/>
+          </cell>
+          <cell r="AC7" t="str">
+            <v/>
+          </cell>
+          <cell r="AD7" t="str">
+            <v/>
+          </cell>
+          <cell r="AE7" t="str">
+            <v/>
+          </cell>
+          <cell r="AF7" t="str">
+            <v/>
+          </cell>
+          <cell r="AG7" t="str">
+            <v/>
+          </cell>
+          <cell r="AH7" t="str">
+            <v/>
+          </cell>
+          <cell r="AI7" t="str">
+            <v/>
+          </cell>
+          <cell r="AJ7" t="str">
+            <v/>
+          </cell>
+          <cell r="AK7" t="str">
+            <v/>
+          </cell>
+          <cell r="AL7" t="str">
+            <v/>
+          </cell>
+          <cell r="AM7" t="str">
+            <v/>
+          </cell>
+          <cell r="AN7" t="str">
+            <v/>
+          </cell>
+          <cell r="AO7" t="str">
+            <v/>
+          </cell>
+          <cell r="AP7" t="str">
+            <v/>
+          </cell>
+          <cell r="AQ7" t="str">
+            <v/>
+          </cell>
+          <cell r="AR7" t="str">
+            <v/>
+          </cell>
+          <cell r="AS7" t="str">
+            <v/>
+          </cell>
+          <cell r="AT7" t="str">
+            <v/>
+          </cell>
+          <cell r="AU7" t="str">
+            <v/>
+          </cell>
+          <cell r="AV7" t="str">
+            <v/>
+          </cell>
+          <cell r="AW7" t="str">
+            <v/>
+          </cell>
+          <cell r="AX7" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Australia</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v/>
+          </cell>
+          <cell r="D8">
+            <v>26.640158</v>
+          </cell>
+          <cell r="E8">
+            <v>27.305810999999999</v>
+          </cell>
+          <cell r="F8">
+            <v>27.902850999999998</v>
+          </cell>
+          <cell r="G8">
+            <v>28.475919999999999</v>
+          </cell>
+          <cell r="H8">
+            <v>28.017925000000002</v>
+          </cell>
+          <cell r="I8">
+            <v>29.055812</v>
+          </cell>
+          <cell r="J8">
+            <v>29.543773999999999</v>
+          </cell>
+          <cell r="K8">
+            <v>29.510788999999999</v>
+          </cell>
+          <cell r="L8">
+            <v>30.759588999999998</v>
+          </cell>
+          <cell r="M8">
+            <v>30.9116</v>
+          </cell>
+          <cell r="N8">
+            <v>31.250095999999999</v>
+          </cell>
+          <cell r="O8">
+            <v>32.171847999999997</v>
+          </cell>
+          <cell r="P8">
+            <v>32.564476999999997</v>
+          </cell>
+          <cell r="Q8">
+            <v>33.401935999999999</v>
+          </cell>
+          <cell r="R8">
+            <v>34.128802999999998</v>
+          </cell>
+          <cell r="S8">
+            <v>34.083944000000002</v>
+          </cell>
+          <cell r="T8">
+            <v>34.111016999999997</v>
+          </cell>
+          <cell r="U8">
+            <v>34.849553999999998</v>
+          </cell>
+          <cell r="V8">
+            <v>34.746827000000003</v>
+          </cell>
+          <cell r="W8">
+            <v>34.847437999999997</v>
+          </cell>
+          <cell r="X8">
+            <v>34.226391</v>
+          </cell>
+          <cell r="Y8">
+            <v>35.015886999999999</v>
+          </cell>
+          <cell r="Z8">
+            <v>36.098449000000002</v>
+          </cell>
+          <cell r="AA8">
+            <v>36.201386999999997</v>
+          </cell>
+          <cell r="AB8">
+            <v>36.283549999999998</v>
+          </cell>
+          <cell r="AC8">
+            <v>37.405180999999999</v>
+          </cell>
+          <cell r="AD8">
+            <v>38.714455000000001</v>
+          </cell>
+          <cell r="AE8">
+            <v>39.959372000000002</v>
+          </cell>
+          <cell r="AF8">
+            <v>41.244092999999999</v>
+          </cell>
+          <cell r="AG8">
+            <v>41.582228999999998</v>
+          </cell>
+          <cell r="AH8">
+            <v>42.007765999999997</v>
+          </cell>
+          <cell r="AI8">
+            <v>43.411163000000002</v>
+          </cell>
+          <cell r="AJ8">
+            <v>44.050522000000001</v>
+          </cell>
+          <cell r="AK8">
+            <v>45.038172000000003</v>
+          </cell>
+          <cell r="AL8">
+            <v>44.908760999999998</v>
+          </cell>
+          <cell r="AM8">
+            <v>45.173842999999998</v>
+          </cell>
+          <cell r="AN8">
+            <v>45.393988</v>
+          </cell>
+          <cell r="AO8">
+            <v>45.96067</v>
+          </cell>
+          <cell r="AP8">
+            <v>47.518053999999999</v>
+          </cell>
+          <cell r="AQ8">
+            <v>47.030253999999999</v>
+          </cell>
+          <cell r="AR8">
+            <v>47.763582999999997</v>
+          </cell>
+          <cell r="AS8">
+            <v>48.202044999999998</v>
+          </cell>
+          <cell r="AT8">
+            <v>49.365122999999997</v>
+          </cell>
+          <cell r="AU8">
+            <v>50.223787999999999</v>
+          </cell>
+          <cell r="AV8">
+            <v>50.587316999999999</v>
+          </cell>
+          <cell r="AW8">
+            <v>51.941718999999999</v>
+          </cell>
+          <cell r="AX8">
+            <v>52.309275</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Austria</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v/>
+          </cell>
+          <cell r="D9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="H9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="J9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="K9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="L9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="M9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="N9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="O9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="P9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Q9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="R9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="S9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="T9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="U9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="V9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="W9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="X9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Y9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Z9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AA9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AB9" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AC9">
+            <v>41.032933999999997</v>
+          </cell>
+          <cell r="AD9">
+            <v>41.093978</v>
+          </cell>
+          <cell r="AE9">
+            <v>41.501857999999999</v>
+          </cell>
+          <cell r="AF9">
+            <v>43.062215000000002</v>
+          </cell>
+          <cell r="AG9">
+            <v>43.845177</v>
+          </cell>
+          <cell r="AH9">
+            <v>44.885092</v>
+          </cell>
+          <cell r="AI9">
+            <v>45.495314999999998</v>
+          </cell>
+          <cell r="AJ9">
+            <v>46.359751000000003</v>
+          </cell>
+          <cell r="AK9">
+            <v>46.639584999999997</v>
+          </cell>
+          <cell r="AL9">
+            <v>47.537075000000002</v>
+          </cell>
+          <cell r="AM9">
+            <v>48.633378</v>
+          </cell>
+          <cell r="AN9">
+            <v>49.876545</v>
+          </cell>
+          <cell r="AO9">
+            <v>51.075963999999999</v>
+          </cell>
+          <cell r="AP9">
+            <v>51.121980000000001</v>
+          </cell>
+          <cell r="AQ9">
+            <v>50.745142000000001</v>
+          </cell>
+          <cell r="AR9">
+            <v>51.559100999999998</v>
+          </cell>
+          <cell r="AS9">
+            <v>52.012619000000001</v>
+          </cell>
+          <cell r="AT9">
+            <v>52.612211000000002</v>
+          </cell>
+          <cell r="AU9">
+            <v>53.002913999999997</v>
+          </cell>
+          <cell r="AV9">
+            <v>53.184396999999997</v>
+          </cell>
+          <cell r="AW9">
+            <v>54.134436999999998</v>
+          </cell>
+          <cell r="AX9">
+            <v>53.926312000000003</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Belgium</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v/>
+          </cell>
+          <cell r="D10">
+            <v>25.043125</v>
+          </cell>
+          <cell r="E10">
+            <v>25.946362000000001</v>
+          </cell>
+          <cell r="F10">
+            <v>27.754073000000002</v>
+          </cell>
+          <cell r="G10">
+            <v>29.627108</v>
+          </cell>
+          <cell r="H10">
+            <v>30.892256</v>
+          </cell>
+          <cell r="I10">
+            <v>31.085511</v>
+          </cell>
+          <cell r="J10">
+            <v>32.981800999999997</v>
+          </cell>
+          <cell r="K10">
+            <v>33.795644000000003</v>
+          </cell>
+          <cell r="L10">
+            <v>35.066755999999998</v>
+          </cell>
+          <cell r="M10">
+            <v>35.891953999999998</v>
+          </cell>
+          <cell r="N10">
+            <v>37.989724000000002</v>
+          </cell>
+          <cell r="O10">
+            <v>39.144694000000001</v>
+          </cell>
+          <cell r="P10">
+            <v>40.229098999999998</v>
+          </cell>
+          <cell r="Q10">
+            <v>40.744784000000003</v>
+          </cell>
+          <cell r="R10">
+            <v>41.171362999999999</v>
+          </cell>
+          <cell r="S10">
+            <v>41.508567999999997</v>
+          </cell>
+          <cell r="T10">
+            <v>42.497205999999998</v>
+          </cell>
+          <cell r="U10">
+            <v>43.545686000000003</v>
+          </cell>
+          <cell r="V10">
+            <v>45.061915999999997</v>
+          </cell>
+          <cell r="W10">
+            <v>46.164878000000002</v>
+          </cell>
+          <cell r="X10">
+            <v>46.708987999999998</v>
+          </cell>
+          <cell r="Y10">
+            <v>48.483629999999998</v>
+          </cell>
+          <cell r="Z10">
+            <v>49.996845999999998</v>
+          </cell>
+          <cell r="AA10">
+            <v>51.245944999999999</v>
+          </cell>
+          <cell r="AB10">
+            <v>53.121671999999997</v>
+          </cell>
+          <cell r="AC10">
+            <v>52.653742999999999</v>
+          </cell>
+          <cell r="AD10">
+            <v>54.241751000000001</v>
+          </cell>
+          <cell r="AE10">
+            <v>55.411828</v>
+          </cell>
+          <cell r="AF10">
+            <v>55.146341</v>
+          </cell>
+          <cell r="AG10">
+            <v>56.369995000000003</v>
+          </cell>
+          <cell r="AH10">
+            <v>56.821441</v>
+          </cell>
+          <cell r="AI10">
+            <v>56.738588</v>
+          </cell>
+          <cell r="AJ10">
+            <v>58.065500999999998</v>
+          </cell>
+          <cell r="AK10">
+            <v>58.745795000000001</v>
+          </cell>
+          <cell r="AL10">
+            <v>60.474074999999999</v>
+          </cell>
+          <cell r="AM10">
+            <v>61.155531000000003</v>
+          </cell>
+          <cell r="AN10">
+            <v>61.724463999999998</v>
+          </cell>
+          <cell r="AO10">
+            <v>62.641092</v>
+          </cell>
+          <cell r="AP10">
+            <v>62.275469000000001</v>
+          </cell>
+          <cell r="AQ10">
+            <v>61.834772999999998</v>
+          </cell>
+          <cell r="AR10">
+            <v>63.219482999999997</v>
+          </cell>
+          <cell r="AS10">
+            <v>62.925728999999997</v>
+          </cell>
+          <cell r="AT10">
+            <v>62.789425999999999</v>
+          </cell>
+          <cell r="AU10">
+            <v>63.198804000000003</v>
+          </cell>
+          <cell r="AV10">
+            <v>63.889806999999998</v>
+          </cell>
+          <cell r="AW10">
+            <v>64.657045999999994</v>
+          </cell>
+          <cell r="AX10">
+            <v>64.741765000000001</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Canada</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v/>
+          </cell>
+          <cell r="D11">
+            <v>27.017296000000002</v>
+          </cell>
+          <cell r="E11">
+            <v>27.721309000000002</v>
+          </cell>
+          <cell r="F11">
+            <v>28.663976999999999</v>
+          </cell>
+          <cell r="G11">
+            <v>29.382344</v>
+          </cell>
+          <cell r="H11">
+            <v>29.497693999999999</v>
+          </cell>
+          <cell r="I11">
+            <v>29.941870000000002</v>
+          </cell>
+          <cell r="J11">
+            <v>31.503582999999999</v>
+          </cell>
+          <cell r="K11">
+            <v>32.384056000000001</v>
+          </cell>
+          <cell r="L11">
+            <v>32.707672000000002</v>
+          </cell>
+          <cell r="M11">
+            <v>32.415013000000002</v>
+          </cell>
+          <cell r="N11">
+            <v>32.321823000000002</v>
+          </cell>
+          <cell r="O11">
+            <v>32.775185</v>
+          </cell>
+          <cell r="P11">
+            <v>33.222425000000001</v>
+          </cell>
+          <cell r="Q11">
+            <v>33.993909000000002</v>
+          </cell>
+          <cell r="R11">
+            <v>34.923375999999998</v>
+          </cell>
+          <cell r="S11">
+            <v>35.235683000000002</v>
+          </cell>
+          <cell r="T11">
+            <v>34.940612000000002</v>
+          </cell>
+          <cell r="U11">
+            <v>35.110052000000003</v>
+          </cell>
+          <cell r="V11">
+            <v>35.453116999999999</v>
+          </cell>
+          <cell r="W11">
+            <v>35.540627999999998</v>
+          </cell>
+          <cell r="X11">
+            <v>35.497151000000002</v>
+          </cell>
+          <cell r="Y11">
+            <v>35.794764000000001</v>
+          </cell>
+          <cell r="Z11">
+            <v>36.520763000000002</v>
+          </cell>
+          <cell r="AA11">
+            <v>37.257643000000002</v>
+          </cell>
+          <cell r="AB11">
+            <v>37.997959000000002</v>
+          </cell>
+          <cell r="AC11">
+            <v>38.455795000000002</v>
+          </cell>
+          <cell r="AD11">
+            <v>38.368161000000001</v>
+          </cell>
+          <cell r="AE11">
+            <v>39.332614999999997</v>
+          </cell>
+          <cell r="AF11">
+            <v>40.032946000000003</v>
+          </cell>
+          <cell r="AG11">
+            <v>41.025508000000002</v>
+          </cell>
+          <cell r="AH11">
+            <v>42.268087000000001</v>
+          </cell>
+          <cell r="AI11">
+            <v>42.805774</v>
+          </cell>
+          <cell r="AJ11">
+            <v>43.462876999999999</v>
+          </cell>
+          <cell r="AK11">
+            <v>43.493296999999998</v>
+          </cell>
+          <cell r="AL11">
+            <v>43.781275000000001</v>
+          </cell>
+          <cell r="AM11">
+            <v>44.82403</v>
+          </cell>
+          <cell r="AN11">
+            <v>45.333705999999999</v>
+          </cell>
+          <cell r="AO11">
+            <v>45.404719999999998</v>
+          </cell>
+          <cell r="AP11">
+            <v>45.372087000000001</v>
+          </cell>
+          <cell r="AQ11">
+            <v>45.69941</v>
+          </cell>
+          <cell r="AR11">
+            <v>46.204196000000003</v>
+          </cell>
+          <cell r="AS11">
+            <v>47.006307999999997</v>
+          </cell>
+          <cell r="AT11">
+            <v>46.953021999999997</v>
+          </cell>
+          <cell r="AU11">
+            <v>47.617455</v>
+          </cell>
+          <cell r="AV11">
+            <v>48.669623999999999</v>
+          </cell>
+          <cell r="AW11">
+            <v>48.567483000000003</v>
+          </cell>
+          <cell r="AX11">
+            <v>48.885367000000002</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Chile</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v/>
+          </cell>
+          <cell r="D12" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="H12" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="J12" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="K12" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="L12" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="M12" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="N12" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="O12" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="P12" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Q12" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="R12" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="S12" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="T12">
+            <v>9.3206950000000006</v>
+          </cell>
+          <cell r="U12">
+            <v>9.5503420000000006</v>
+          </cell>
+          <cell r="V12">
+            <v>9.6481519999999996</v>
+          </cell>
+          <cell r="W12">
+            <v>10.10224</v>
+          </cell>
+          <cell r="X12">
+            <v>10.238225999999999</v>
+          </cell>
+          <cell r="Y12">
+            <v>10.881565</v>
+          </cell>
+          <cell r="Z12">
+            <v>11.667139000000001</v>
+          </cell>
+          <cell r="AA12">
+            <v>11.919371</v>
+          </cell>
+          <cell r="AB12">
+            <v>12.634729</v>
+          </cell>
+          <cell r="AC12">
+            <v>13.963296</v>
+          </cell>
+          <cell r="AD12">
+            <v>14.942660999999999</v>
+          </cell>
+          <cell r="AE12">
+            <v>16.100594999999998</v>
+          </cell>
+          <cell r="AF12">
+            <v>16.135155999999998</v>
+          </cell>
+          <cell r="AG12">
+            <v>16.415779000000001</v>
+          </cell>
+          <cell r="AH12">
+            <v>17.097995000000001</v>
+          </cell>
+          <cell r="AI12">
+            <v>17.626265</v>
+          </cell>
+          <cell r="AJ12">
+            <v>17.782589000000002</v>
+          </cell>
+          <cell r="AK12">
+            <v>17.932182999999998</v>
+          </cell>
+          <cell r="AL12">
+            <v>18.772271</v>
+          </cell>
+          <cell r="AM12">
+            <v>19.774152000000001</v>
+          </cell>
+          <cell r="AN12">
+            <v>20.588953</v>
+          </cell>
+          <cell r="AO12">
+            <v>21.382722999999999</v>
+          </cell>
+          <cell r="AP12">
+            <v>21.853819000000001</v>
+          </cell>
+          <cell r="AQ12">
+            <v>21.87313</v>
+          </cell>
+          <cell r="AR12">
+            <v>21.752451000000001</v>
+          </cell>
+          <cell r="AS12">
+            <v>22.252676000000001</v>
+          </cell>
+          <cell r="AT12">
+            <v>23.354165999999999</v>
+          </cell>
+          <cell r="AU12">
+            <v>23.118248999999999</v>
+          </cell>
+          <cell r="AV12">
+            <v>23.502904000000001</v>
+          </cell>
+          <cell r="AW12">
+            <v>23.683147999999999</v>
+          </cell>
+          <cell r="AX12">
+            <v>23.970137999999999</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Czech Republic</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v/>
+          </cell>
+          <cell r="D13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="O13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="P13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Q13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="R13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="S13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="T13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="U13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="V13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="W13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="X13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Y13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Z13" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AA13">
+            <v>19.112604000000001</v>
+          </cell>
+          <cell r="AB13">
+            <v>19.642285999999999</v>
+          </cell>
+          <cell r="AC13">
+            <v>20.512899999999998</v>
+          </cell>
+          <cell r="AD13">
+            <v>21.330071</v>
+          </cell>
+          <cell r="AE13">
+            <v>21.293423000000001</v>
+          </cell>
+          <cell r="AF13">
+            <v>21.371964999999999</v>
+          </cell>
+          <cell r="AG13">
+            <v>21.966965999999999</v>
+          </cell>
+          <cell r="AH13">
+            <v>23.069773000000001</v>
+          </cell>
+          <cell r="AI13">
+            <v>24.815518000000001</v>
+          </cell>
+          <cell r="AJ13">
+            <v>25.092538000000001</v>
+          </cell>
+          <cell r="AK13">
+            <v>26.354724000000001</v>
+          </cell>
+          <cell r="AL13">
+            <v>27.535131</v>
+          </cell>
+          <cell r="AM13">
+            <v>28.776624999999999</v>
+          </cell>
+          <cell r="AN13">
+            <v>30.640491000000001</v>
+          </cell>
+          <cell r="AO13">
+            <v>31.958362000000001</v>
+          </cell>
+          <cell r="AP13">
+            <v>32.023125</v>
+          </cell>
+          <cell r="AQ13">
+            <v>31.233882000000001</v>
+          </cell>
+          <cell r="AR13">
+            <v>31.905947999999999</v>
+          </cell>
+          <cell r="AS13">
+            <v>32.451619999999998</v>
+          </cell>
+          <cell r="AT13">
+            <v>32.589861999999997</v>
+          </cell>
+          <cell r="AU13">
+            <v>32.568697999999998</v>
+          </cell>
+          <cell r="AV13">
+            <v>33.012227000000003</v>
+          </cell>
+          <cell r="AW13">
+            <v>34.677177999999998</v>
+          </cell>
+          <cell r="AX13">
+            <v>34.685580999999999</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Denmark</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v/>
+          </cell>
+          <cell r="D14">
+            <v>25.113911999999999</v>
+          </cell>
+          <cell r="E14">
+            <v>26.388707</v>
+          </cell>
+          <cell r="F14">
+            <v>27.790151000000002</v>
+          </cell>
+          <cell r="G14">
+            <v>29.305990000000001</v>
+          </cell>
+          <cell r="H14">
+            <v>29.493857999999999</v>
+          </cell>
+          <cell r="I14">
+            <v>30.705978999999999</v>
+          </cell>
+          <cell r="J14">
+            <v>31.840336000000001</v>
+          </cell>
+          <cell r="K14">
+            <v>33.020592999999998</v>
+          </cell>
+          <cell r="L14">
+            <v>33.967534000000001</v>
+          </cell>
+          <cell r="M14">
+            <v>35.136907999999998</v>
+          </cell>
+          <cell r="N14">
+            <v>34.865997999999998</v>
+          </cell>
+          <cell r="O14">
+            <v>35.892308999999997</v>
+          </cell>
+          <cell r="P14">
+            <v>36.893991</v>
+          </cell>
+          <cell r="Q14">
+            <v>37.993177000000003</v>
+          </cell>
+          <cell r="R14">
+            <v>39.141674000000002</v>
+          </cell>
+          <cell r="S14">
+            <v>40.131566999999997</v>
+          </cell>
+          <cell r="T14">
+            <v>41.001632000000001</v>
+          </cell>
+          <cell r="U14">
+            <v>41.834339</v>
+          </cell>
+          <cell r="V14">
+            <v>42.655310999999998</v>
+          </cell>
+          <cell r="W14">
+            <v>43.548262999999999</v>
+          </cell>
+          <cell r="X14">
+            <v>44.822609999999997</v>
+          </cell>
+          <cell r="Y14">
+            <v>45.994233999999999</v>
+          </cell>
+          <cell r="Z14">
+            <v>46.786144</v>
+          </cell>
+          <cell r="AA14">
+            <v>47.679906000000003</v>
+          </cell>
+          <cell r="AB14">
+            <v>50.723942999999998</v>
+          </cell>
+          <cell r="AC14">
+            <v>51.478779000000003</v>
+          </cell>
+          <cell r="AD14">
+            <v>52.706108</v>
+          </cell>
+          <cell r="AE14">
+            <v>53.088137000000003</v>
+          </cell>
+          <cell r="AF14">
+            <v>53.026994999999999</v>
+          </cell>
+          <cell r="AG14">
+            <v>53.567087999999998</v>
+          </cell>
+          <cell r="AH14">
+            <v>54.807881999999999</v>
+          </cell>
+          <cell r="AI14">
+            <v>54.61439</v>
+          </cell>
+          <cell r="AJ14">
+            <v>55.063408000000003</v>
+          </cell>
+          <cell r="AK14">
+            <v>55.972163000000002</v>
+          </cell>
+          <cell r="AL14">
+            <v>57.759487</v>
+          </cell>
+          <cell r="AM14">
+            <v>58.550144000000003</v>
+          </cell>
+          <cell r="AN14">
+            <v>59.321770000000001</v>
+          </cell>
+          <cell r="AO14">
+            <v>59.431176999999998</v>
+          </cell>
+          <cell r="AP14">
+            <v>58.546405999999998</v>
+          </cell>
+          <cell r="AQ14">
+            <v>58.006782999999999</v>
+          </cell>
+          <cell r="AR14">
+            <v>60.276910000000001</v>
+          </cell>
+          <cell r="AS14">
+            <v>60.485613999999998</v>
+          </cell>
+          <cell r="AT14">
+            <v>61.641644999999997</v>
+          </cell>
+          <cell r="AU14">
+            <v>62.126362</v>
+          </cell>
+          <cell r="AV14">
+            <v>63.016243000000003</v>
+          </cell>
+          <cell r="AW14">
+            <v>63.320833999999998</v>
+          </cell>
+          <cell r="AX14">
+            <v>63.636363000000003</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Estonia</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v/>
+          </cell>
+          <cell r="D15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="H15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="I15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="J15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="K15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="L15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="M15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="N15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="O15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="P15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Q15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="R15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="S15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="T15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="U15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="V15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="W15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="X15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Y15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Z15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AA15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AB15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AC15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AD15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AE15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AF15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AG15" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AH15">
+            <v>18.0183</v>
+          </cell>
+          <cell r="AI15">
+            <v>19.122534000000002</v>
+          </cell>
+          <cell r="AJ15">
+            <v>20.265378999999999</v>
+          </cell>
+          <cell r="AK15">
+            <v>21.251186000000001</v>
+          </cell>
+          <cell r="AL15">
+            <v>22.586670999999999</v>
+          </cell>
+          <cell r="AM15">
+            <v>23.891625999999999</v>
+          </cell>
+          <cell r="AN15">
+            <v>25.211803</v>
+          </cell>
+          <cell r="AO15">
+            <v>27.148593000000002</v>
+          </cell>
+          <cell r="AP15">
+            <v>26.130880000000001</v>
+          </cell>
+          <cell r="AQ15">
+            <v>26.651547999999998</v>
+          </cell>
+          <cell r="AR15">
+            <v>28.019839999999999</v>
+          </cell>
+          <cell r="AS15">
+            <v>27.644082000000001</v>
+          </cell>
+          <cell r="AT15">
+            <v>28.872426999999998</v>
+          </cell>
+          <cell r="AU15">
+            <v>29.378266</v>
+          </cell>
+          <cell r="AV15">
+            <v>30.101295</v>
+          </cell>
+          <cell r="AW15">
+            <v>29.875923</v>
+          </cell>
+          <cell r="AX15">
+            <v>30.345766999999999</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Finland</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v/>
+          </cell>
+          <cell r="D16">
+            <v>15.748999</v>
+          </cell>
+          <cell r="E16">
+            <v>16.520847</v>
+          </cell>
+          <cell r="F16">
+            <v>17.782948000000001</v>
+          </cell>
+          <cell r="G16">
+            <v>18.830352000000001</v>
+          </cell>
+          <cell r="H16">
+            <v>19.435782</v>
+          </cell>
+          <cell r="I16">
+            <v>19.981445999999998</v>
+          </cell>
+          <cell r="J16">
+            <v>20.267083</v>
+          </cell>
+          <cell r="K16">
+            <v>20.782245</v>
+          </cell>
+          <cell r="L16">
+            <v>21.528794000000001</v>
+          </cell>
+          <cell r="M16">
+            <v>22.859296000000001</v>
+          </cell>
+          <cell r="N16">
+            <v>23.662388</v>
+          </cell>
+          <cell r="O16">
+            <v>23.599654000000001</v>
+          </cell>
+          <cell r="P16">
+            <v>24.247655999999999</v>
+          </cell>
+          <cell r="Q16">
+            <v>25.152398000000002</v>
+          </cell>
+          <cell r="R16">
+            <v>25.930259</v>
+          </cell>
+          <cell r="S16">
+            <v>26.810298</v>
+          </cell>
+          <cell r="T16">
+            <v>27.948841000000002</v>
+          </cell>
+          <cell r="U16">
+            <v>28.692696999999999</v>
+          </cell>
+          <cell r="V16">
+            <v>29.752331000000002</v>
+          </cell>
+          <cell r="W16">
+            <v>31.041926</v>
+          </cell>
+          <cell r="X16">
+            <v>31.991636</v>
+          </cell>
+          <cell r="Y16">
+            <v>32.291634000000002</v>
+          </cell>
+          <cell r="Z16">
+            <v>33.480424999999997</v>
+          </cell>
+          <cell r="AA16">
+            <v>35.292470000000002</v>
+          </cell>
+          <cell r="AB16">
+            <v>36.790287999999997</v>
+          </cell>
+          <cell r="AC16">
+            <v>37.642251000000002</v>
+          </cell>
+          <cell r="AD16">
+            <v>38.493924999999997</v>
+          </cell>
+          <cell r="AE16">
+            <v>39.770969999999998</v>
+          </cell>
+          <cell r="AF16">
+            <v>41.406117000000002</v>
+          </cell>
+          <cell r="AG16">
+            <v>42.125880000000002</v>
+          </cell>
+          <cell r="AH16">
+            <v>43.930554999999998</v>
+          </cell>
+          <cell r="AI16">
+            <v>44.922938000000002</v>
+          </cell>
+          <cell r="AJ16">
+            <v>45.419953</v>
+          </cell>
+          <cell r="AK16">
+            <v>46.491363999999997</v>
+          </cell>
+          <cell r="AL16">
+            <v>47.986382999999996</v>
+          </cell>
+          <cell r="AM16">
+            <v>48.856234000000001</v>
+          </cell>
+          <cell r="AN16">
+            <v>50.049576999999999</v>
+          </cell>
+          <cell r="AO16">
+            <v>51.589272999999999</v>
+          </cell>
+          <cell r="AP16">
+            <v>51.040255999999999</v>
+          </cell>
+          <cell r="AQ16">
+            <v>48.663964</v>
+          </cell>
+          <cell r="AR16">
+            <v>50.252037000000001</v>
+          </cell>
+          <cell r="AS16">
+            <v>51.057068999999998</v>
+          </cell>
+          <cell r="AT16">
+            <v>50.259191999999999</v>
+          </cell>
+          <cell r="AU16">
+            <v>50.561588</v>
+          </cell>
+          <cell r="AV16">
+            <v>50.585034</v>
+          </cell>
+          <cell r="AW16">
+            <v>50.622644000000001</v>
+          </cell>
+          <cell r="AX16">
+            <v>51.412658999999998</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>France</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v/>
+          </cell>
+          <cell r="D17">
+            <v>22.282568999999999</v>
+          </cell>
+          <cell r="E17">
+            <v>23.369077000000001</v>
+          </cell>
+          <cell r="F17">
+            <v>24.916841999999999</v>
+          </cell>
+          <cell r="G17">
+            <v>26.315629999999999</v>
+          </cell>
+          <cell r="H17">
+            <v>27.629065000000001</v>
+          </cell>
+          <cell r="I17">
+            <v>27.932465000000001</v>
+          </cell>
+          <cell r="J17">
+            <v>28.478254</v>
+          </cell>
+          <cell r="K17">
+            <v>29.788844999999998</v>
+          </cell>
+          <cell r="L17">
+            <v>31.303435</v>
+          </cell>
+          <cell r="M17">
+            <v>32.246882999999997</v>
+          </cell>
+          <cell r="N17">
+            <v>32.756694000000003</v>
+          </cell>
+          <cell r="O17">
+            <v>33.502957000000002</v>
+          </cell>
+          <cell r="P17">
+            <v>35.709243000000001</v>
+          </cell>
+          <cell r="Q17">
+            <v>36.566540000000003</v>
+          </cell>
+          <cell r="R17">
+            <v>37.441305999999997</v>
+          </cell>
+          <cell r="S17">
+            <v>38.933954</v>
+          </cell>
+          <cell r="T17">
+            <v>39.746405000000003</v>
+          </cell>
+          <cell r="U17">
+            <v>40.105485000000002</v>
+          </cell>
+          <cell r="V17">
+            <v>41.364936</v>
+          </cell>
+          <cell r="W17">
+            <v>42.803587</v>
+          </cell>
+          <cell r="X17">
+            <v>43.777394000000001</v>
+          </cell>
+          <cell r="Y17">
+            <v>44.298386999999998</v>
+          </cell>
+          <cell r="Z17">
+            <v>45.313156999999997</v>
+          </cell>
+          <cell r="AA17">
+            <v>45.709605000000003</v>
+          </cell>
+          <cell r="AB17">
+            <v>46.606726000000002</v>
+          </cell>
+          <cell r="AC17">
+            <v>47.721564000000001</v>
+          </cell>
+          <cell r="AD17">
+            <v>48.212592000000001</v>
+          </cell>
+          <cell r="AE17">
+            <v>49.002709000000003</v>
+          </cell>
+          <cell r="AF17">
+            <v>50.174928999999999</v>
+          </cell>
+          <cell r="AG17">
+            <v>50.855224</v>
+          </cell>
+          <cell r="AH17">
+            <v>52.173247000000003</v>
+          </cell>
+          <cell r="AI17">
+            <v>53.128172999999997</v>
+          </cell>
+          <cell r="AJ17">
+            <v>54.658935999999997</v>
+          </cell>
+          <cell r="AK17">
+            <v>54.934392000000003</v>
+          </cell>
+          <cell r="AL17">
+            <v>55.512875000000001</v>
+          </cell>
+          <cell r="AM17">
+            <v>55.967835000000001</v>
+          </cell>
+          <cell r="AN17">
+            <v>57.302821999999999</v>
+          </cell>
+          <cell r="AO17">
+            <v>57.109209999999997</v>
+          </cell>
+          <cell r="AP17">
+            <v>56.665933000000003</v>
+          </cell>
+          <cell r="AQ17">
+            <v>56.230682000000002</v>
+          </cell>
+          <cell r="AR17">
+            <v>57.023933999999997</v>
+          </cell>
+          <cell r="AS17">
+            <v>57.505867000000002</v>
+          </cell>
+          <cell r="AT17">
+            <v>57.643306000000003</v>
+          </cell>
+          <cell r="AU17">
+            <v>58.406663000000002</v>
+          </cell>
+          <cell r="AV17">
+            <v>58.889541999999999</v>
+          </cell>
+          <cell r="AW17">
+            <v>59.369140000000002</v>
+          </cell>
+          <cell r="AX17">
+            <v>59.952458999999998</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Germany</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v/>
+          </cell>
+          <cell r="D18">
+            <v>22.293557</v>
+          </cell>
+          <cell r="E18">
+            <v>23.266508999999999</v>
+          </cell>
+          <cell r="F18">
+            <v>24.425891</v>
+          </cell>
+          <cell r="G18">
+            <v>25.671852999999999</v>
+          </cell>
+          <cell r="H18">
+            <v>26.708268</v>
+          </cell>
+          <cell r="I18">
+            <v>27.713163999999999</v>
+          </cell>
+          <cell r="J18">
+            <v>29.005230000000001</v>
+          </cell>
+          <cell r="K18">
+            <v>30.199697</v>
+          </cell>
+          <cell r="L18">
+            <v>31.132002</v>
+          </cell>
+          <cell r="M18">
+            <v>32.023409999999998</v>
+          </cell>
+          <cell r="N18">
+            <v>32.293011999999997</v>
+          </cell>
+          <cell r="O18">
+            <v>32.829878999999998</v>
+          </cell>
+          <cell r="P18">
+            <v>33.169553000000001</v>
+          </cell>
+          <cell r="Q18">
+            <v>34.257857000000001</v>
+          </cell>
+          <cell r="R18">
+            <v>35.162671000000003</v>
+          </cell>
+          <cell r="S18">
+            <v>35.974020000000003</v>
+          </cell>
+          <cell r="T18">
+            <v>36.519109999999998</v>
+          </cell>
+          <cell r="U18">
+            <v>37.018664999999999</v>
+          </cell>
+          <cell r="V18">
+            <v>37.973576999999999</v>
+          </cell>
+          <cell r="W18">
+            <v>39.295084000000003</v>
+          </cell>
+          <cell r="X18">
+            <v>40.683599999999998</v>
+          </cell>
+          <cell r="Y18">
+            <v>42.098050999999998</v>
+          </cell>
+          <cell r="Z18">
+            <v>43.165089000000002</v>
+          </cell>
+          <cell r="AA18">
+            <v>43.964838</v>
+          </cell>
+          <cell r="AB18">
+            <v>45.157626999999998</v>
+          </cell>
+          <cell r="AC18">
+            <v>46.026269999999997</v>
+          </cell>
+          <cell r="AD18">
+            <v>46.926195999999997</v>
+          </cell>
+          <cell r="AE18">
+            <v>48.167693999999997</v>
+          </cell>
+          <cell r="AF18">
+            <v>48.729897999999999</v>
+          </cell>
+          <cell r="AG18">
+            <v>49.395125999999998</v>
+          </cell>
+          <cell r="AH18">
+            <v>50.644129</v>
+          </cell>
+          <cell r="AI18">
+            <v>52.004345999999998</v>
+          </cell>
+          <cell r="AJ18">
+            <v>52.642650000000003</v>
+          </cell>
+          <cell r="AK18">
+            <v>53.069113999999999</v>
+          </cell>
+          <cell r="AL18">
+            <v>53.597878000000001</v>
+          </cell>
+          <cell r="AM18">
+            <v>54.410420000000002</v>
+          </cell>
+          <cell r="AN18">
+            <v>55.457433999999999</v>
+          </cell>
+          <cell r="AO18">
+            <v>56.298537000000003</v>
+          </cell>
+          <cell r="AP18">
+            <v>56.404091000000001</v>
+          </cell>
+          <cell r="AQ18">
+            <v>54.958010999999999</v>
+          </cell>
+          <cell r="AR18">
+            <v>56.317371000000001</v>
+          </cell>
+          <cell r="AS18">
+            <v>57.475321000000001</v>
+          </cell>
+          <cell r="AT18">
+            <v>57.831997000000001</v>
+          </cell>
+          <cell r="AU18">
+            <v>58.294547999999999</v>
+          </cell>
+          <cell r="AV18">
+            <v>58.720795000000003</v>
+          </cell>
+          <cell r="AW18">
+            <v>59.184457999999999</v>
+          </cell>
+          <cell r="AX18">
+            <v>59.777555</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Greece</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v/>
+          </cell>
+          <cell r="D19" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="G19" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="H19" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="I19" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="J19" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="K19" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="L19" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="M19" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="N19" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="O19" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="P19" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Q19">
+            <v>22.440132999999999</v>
+          </cell>
+          <cell r="R19">
+            <v>23.736961999999998</v>
+          </cell>
+          <cell r="S19">
+            <v>23.534789</v>
+          </cell>
+          <cell r="T19">
+            <v>23.709319000000001</v>
+          </cell>
+          <cell r="U19">
+            <v>23.676109</v>
+          </cell>
+          <cell r="V19">
+            <v>24.427448999999999</v>
+          </cell>
+          <cell r="W19">
+            <v>24.746879</v>
+          </cell>
+          <cell r="X19">
+            <v>24.696399</v>
+          </cell>
+          <cell r="Y19">
+            <v>25.538233999999999</v>
+          </cell>
+          <cell r="Z19">
+            <v>25.020655999999999</v>
+          </cell>
+          <cell r="AA19">
+            <v>24.180727999999998</v>
+          </cell>
+          <cell r="AB19">
+            <v>24.609618000000001</v>
+          </cell>
+          <cell r="AC19">
+            <v>25.114592999999999</v>
+          </cell>
+          <cell r="AD19">
+            <v>25.997513999999999</v>
+          </cell>
+          <cell r="AE19">
+            <v>27.289290000000001</v>
+          </cell>
+          <cell r="AF19">
+            <v>27.152677000000001</v>
+          </cell>
+          <cell r="AG19">
+            <v>28.025337</v>
+          </cell>
+          <cell r="AH19">
+            <v>28.990278</v>
+          </cell>
+          <cell r="AI19">
+            <v>30.172478999999999</v>
+          </cell>
+          <cell r="AJ19">
+            <v>30.722925</v>
+          </cell>
+          <cell r="AK19">
+            <v>32.085949999999997</v>
+          </cell>
+          <cell r="AL19">
+            <v>33.057194000000003</v>
+          </cell>
+          <cell r="AM19">
+            <v>32.121034000000002</v>
+          </cell>
+          <cell r="AN19">
+            <v>33.501755000000003</v>
+          </cell>
+          <cell r="AO19">
+            <v>34.370708</v>
+          </cell>
+          <cell r="AP19">
+            <v>33.899115999999999</v>
+          </cell>
+          <cell r="AQ19">
+            <v>33.017668</v>
+          </cell>
+          <cell r="AR19">
+            <v>33.005538000000001</v>
+          </cell>
+          <cell r="AS19">
+            <v>31.920051999999998</v>
+          </cell>
+          <cell r="AT19">
+            <v>31.311836</v>
+          </cell>
+          <cell r="AU19">
+            <v>31.053553999999998</v>
+          </cell>
+          <cell r="AV19">
+            <v>31.583417000000001</v>
+          </cell>
+          <cell r="AW19">
+            <v>31.107361000000001</v>
+          </cell>
+          <cell r="AX19">
+            <v>30.903010999999999</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Hungary</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v/>
+          </cell>
+          <cell r="D20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="F20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="G20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="H20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="I20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="J20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="K20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="L20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="M20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="N20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="O20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="P20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Q20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="R20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="S20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="T20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="U20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="V20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="W20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="X20" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Y20">
+            <v>14.556049</v>
+          </cell>
+          <cell r="Z20">
+            <v>15.755217999999999</v>
+          </cell>
+          <cell r="AA20">
+            <v>16.712375999999999</v>
+          </cell>
+          <cell r="AB20">
+            <v>16.400857999999999</v>
+          </cell>
+          <cell r="AC20">
+            <v>18.950125</v>
+          </cell>
+          <cell r="AD20">
+            <v>18.99464</v>
+          </cell>
+          <cell r="AE20">
+            <v>19.368017999999999</v>
+          </cell>
+          <cell r="AF20">
+            <v>19.883775</v>
+          </cell>
+          <cell r="AG20">
+            <v>19.790234999999999</v>
+          </cell>
+          <cell r="AH20">
+            <v>20.495673</v>
+          </cell>
+          <cell r="AI20">
+            <v>21.739203</v>
+          </cell>
+          <cell r="AJ20">
+            <v>22.606355000000001</v>
+          </cell>
+          <cell r="AK20">
+            <v>23.798055000000002</v>
+          </cell>
+          <cell r="AL20">
+            <v>25.129494000000001</v>
+          </cell>
+          <cell r="AM20">
+            <v>26.298886</v>
+          </cell>
+          <cell r="AN20">
+            <v>27.241223999999999</v>
+          </cell>
+          <cell r="AO20">
+            <v>27.389036999999998</v>
+          </cell>
+          <cell r="AP20">
+            <v>28.132762</v>
+          </cell>
+          <cell r="AQ20">
+            <v>27.204103</v>
+          </cell>
+          <cell r="AR20">
+            <v>30.590669999999999</v>
+          </cell>
+          <cell r="AS20">
+            <v>31.22353</v>
+          </cell>
+          <cell r="AT20">
+            <v>31.008206000000001</v>
+          </cell>
+          <cell r="AU20">
+            <v>31.411874000000001</v>
+          </cell>
+          <cell r="AV20">
+            <v>31.105360999999998</v>
+          </cell>
+          <cell r="AW20">
+            <v>31.442070999999999</v>
+          </cell>
+          <cell r="AX20">
+            <v>31.124690000000001</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Iceland</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v/>
+          </cell>
+          <cell r="D21">
+            <v>14.396125</v>
+          </cell>
+          <cell r="E21">
+            <v>15.84727</v>
+          </cell>
+          <cell r="F21">
+            <v>16.635224999999998</v>
+          </cell>
+          <cell r="G21">
+            <v>17.45552</v>
+          </cell>
+          <cell r="H21">
+            <v>18.090464999999998</v>
+          </cell>
+          <cell r="I21">
+            <v>18.115656000000001</v>
+          </cell>
+          <cell r="J21">
+            <v>18.859521000000001</v>
+          </cell>
+          <cell r="K21">
+            <v>20.935397999999999</v>
+          </cell>
+          <cell r="L21">
+            <v>22.020104</v>
+          </cell>
+          <cell r="M21">
+            <v>23.107227999999999</v>
+          </cell>
+          <cell r="N21">
+            <v>23.836727</v>
+          </cell>
+          <cell r="O21">
+            <v>23.710106</v>
+          </cell>
+          <cell r="P21">
+            <v>23.581851</v>
+          </cell>
+          <cell r="Q21">
+            <v>22.864659</v>
+          </cell>
+          <cell r="R21">
+            <v>23.509481999999998</v>
+          </cell>
+          <cell r="S21">
+            <v>23.443764000000002</v>
+          </cell>
+          <cell r="T21">
+            <v>24.258963000000001</v>
+          </cell>
+          <cell r="U21">
+            <v>24.915196999999999</v>
+          </cell>
+          <cell r="V21">
+            <v>25.538606000000001</v>
+          </cell>
+          <cell r="W21">
+            <v>26.051763000000001</v>
+          </cell>
+          <cell r="X21">
+            <v>26.764208</v>
+          </cell>
+          <cell r="Y21">
+            <v>26.662991000000002</v>
+          </cell>
+          <cell r="Z21">
+            <v>25.763411000000001</v>
+          </cell>
+          <cell r="AA21">
+            <v>25.926597999999998</v>
+          </cell>
+          <cell r="AB21">
+            <v>27.102725</v>
+          </cell>
+          <cell r="AC21">
+            <v>26.563229</v>
+          </cell>
+          <cell r="AD21">
+            <v>27.502659999999999</v>
+          </cell>
+          <cell r="AE21">
+            <v>28.426660999999999</v>
+          </cell>
+          <cell r="AF21">
+            <v>29.418998999999999</v>
+          </cell>
+          <cell r="AG21">
+            <v>29.877095000000001</v>
+          </cell>
+          <cell r="AH21">
+            <v>29.738924000000001</v>
+          </cell>
+          <cell r="AI21">
+            <v>30.181764999999999</v>
+          </cell>
+          <cell r="AJ21">
+            <v>31.347169000000001</v>
+          </cell>
+          <cell r="AK21">
+            <v>32.680022000000001</v>
+          </cell>
+          <cell r="AL21">
+            <v>35.319189000000001</v>
+          </cell>
+          <cell r="AM21">
+            <v>36.683008000000001</v>
+          </cell>
+          <cell r="AN21">
+            <v>36.881976999999999</v>
+          </cell>
+          <cell r="AO21">
+            <v>39.100124999999998</v>
+          </cell>
+          <cell r="AP21">
+            <v>39.298907</v>
+          </cell>
+          <cell r="AQ21">
+            <v>40.778474000000003</v>
+          </cell>
+          <cell r="AR21">
+            <v>39.790574999999997</v>
+          </cell>
+          <cell r="AS21">
+            <v>39.630479000000001</v>
+          </cell>
+          <cell r="AT21">
+            <v>40.197935999999999</v>
+          </cell>
+          <cell r="AU21">
+            <v>40.781489999999998</v>
+          </cell>
+          <cell r="AV21">
+            <v>40.516564000000002</v>
+          </cell>
+          <cell r="AW21">
+            <v>40.451540000000001</v>
+          </cell>
+          <cell r="AX21">
+            <v>41.754883</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Ireland</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v/>
+          </cell>
+          <cell r="D22">
+            <v>12.480949000000001</v>
+          </cell>
+          <cell r="E22">
+            <v>12.859919</v>
+          </cell>
+          <cell r="F22">
+            <v>13.985874000000001</v>
+          </cell>
+          <cell r="G22">
+            <v>14.520835</v>
+          </cell>
+          <cell r="H22">
+            <v>15.169162999999999</v>
+          </cell>
+          <cell r="I22">
+            <v>16.226189999999999</v>
+          </cell>
+          <cell r="J22">
+            <v>16.638809999999999</v>
+          </cell>
+          <cell r="K22">
+            <v>17.686347000000001</v>
+          </cell>
+          <cell r="L22">
+            <v>18.918049</v>
+          </cell>
+          <cell r="M22">
+            <v>18.737783</v>
+          </cell>
+          <cell r="N22">
+            <v>19.855768999999999</v>
+          </cell>
+          <cell r="O22">
+            <v>20.883015</v>
+          </cell>
+          <cell r="P22">
+            <v>21.521782000000002</v>
+          </cell>
+          <cell r="Q22">
+            <v>21.768370999999998</v>
+          </cell>
+          <cell r="R22">
+            <v>23.34224</v>
+          </cell>
+          <cell r="S22">
+            <v>24.086255000000001</v>
+          </cell>
+          <cell r="T22">
+            <v>23.731242000000002</v>
+          </cell>
+          <cell r="U22">
+            <v>24.936709</v>
+          </cell>
+          <cell r="V22">
+            <v>26.125823</v>
+          </cell>
+          <cell r="W22">
+            <v>27.578990999999998</v>
+          </cell>
+          <cell r="X22">
+            <v>28.816848</v>
+          </cell>
+          <cell r="Y22">
+            <v>29.979624000000001</v>
+          </cell>
+          <cell r="Z22">
+            <v>31.480585999999999</v>
+          </cell>
+          <cell r="AA22">
+            <v>32.269266999999999</v>
+          </cell>
+          <cell r="AB22">
+            <v>33.056424999999997</v>
+          </cell>
+          <cell r="AC22">
+            <v>34.686613000000001</v>
+          </cell>
+          <cell r="AD22">
+            <v>35.967416</v>
+          </cell>
+          <cell r="AE22">
+            <v>38.584521000000002</v>
+          </cell>
+          <cell r="AF22">
+            <v>40.325594000000002</v>
+          </cell>
+          <cell r="AG22">
+            <v>42.140116999999996</v>
+          </cell>
+          <cell r="AH22">
+            <v>44.397393000000001</v>
+          </cell>
+          <cell r="AI22">
+            <v>45.773913</v>
+          </cell>
+          <cell r="AJ22">
+            <v>48.392828999999999</v>
+          </cell>
+          <cell r="AK22">
+            <v>49.447124000000002</v>
+          </cell>
+          <cell r="AL22">
+            <v>51.333432000000002</v>
+          </cell>
+          <cell r="AM22">
+            <v>51.650413999999998</v>
+          </cell>
+          <cell r="AN22">
+            <v>52.215963000000002</v>
+          </cell>
+          <cell r="AO22">
+            <v>53.026772999999999</v>
+          </cell>
+          <cell r="AP22">
+            <v>51.847233000000003</v>
+          </cell>
+          <cell r="AQ22">
+            <v>54.605797000000003</v>
+          </cell>
+          <cell r="AR22">
+            <v>58.277555</v>
+          </cell>
+          <cell r="AS22">
+            <v>63.860354000000001</v>
+          </cell>
+          <cell r="AT22">
+            <v>64.058919000000003</v>
+          </cell>
+          <cell r="AU22">
+            <v>63.067836</v>
+          </cell>
+          <cell r="AV22">
+            <v>66.742870999999994</v>
+          </cell>
+          <cell r="AW22">
+            <v>81.291208999999995</v>
+          </cell>
+          <cell r="AX22">
+            <v>83.215061000000006</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Israel</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v/>
+          </cell>
+          <cell r="D23" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="G23" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="H23" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="I23" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="J23" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="K23" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="L23" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="M23" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="N23" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="O23">
+            <v>22.828488</v>
+          </cell>
+          <cell r="P23">
+            <v>23.223611999999999</v>
+          </cell>
+          <cell r="Q23">
+            <v>23.350097000000002</v>
+          </cell>
+          <cell r="R23">
+            <v>23.160419000000001</v>
+          </cell>
+          <cell r="S23">
+            <v>23.951681000000001</v>
+          </cell>
+          <cell r="T23">
+            <v>24.602547000000001</v>
+          </cell>
+          <cell r="U23">
+            <v>25.622461999999999</v>
+          </cell>
+          <cell r="V23">
+            <v>26.103048999999999</v>
+          </cell>
+          <cell r="W23">
+            <v>25.770472999999999</v>
+          </cell>
+          <cell r="X23">
+            <v>27.105640000000001</v>
+          </cell>
+          <cell r="Y23">
+            <v>27.780860000000001</v>
+          </cell>
+          <cell r="Z23">
+            <v>27.622330000000002</v>
+          </cell>
+          <cell r="AA23">
+            <v>27.440006</v>
+          </cell>
+          <cell r="AB23">
+            <v>27.066513</v>
+          </cell>
+          <cell r="AC23">
+            <v>26.791899999999998</v>
+          </cell>
+          <cell r="AD23">
+            <v>27.048068000000001</v>
+          </cell>
+          <cell r="AE23">
+            <v>27.376047</v>
+          </cell>
+          <cell r="AF23">
+            <v>28.138563999999999</v>
+          </cell>
+          <cell r="AG23">
+            <v>28.096288000000001</v>
+          </cell>
+          <cell r="AH23">
+            <v>29.227239999999998</v>
+          </cell>
+          <cell r="AI23">
+            <v>29.491451999999999</v>
+          </cell>
+          <cell r="AJ23">
+            <v>28.959212000000001</v>
+          </cell>
+          <cell r="AK23">
+            <v>29.218651999999999</v>
+          </cell>
+          <cell r="AL23">
+            <v>30.585592999999999</v>
+          </cell>
+          <cell r="AM23">
+            <v>30.933613000000001</v>
+          </cell>
+          <cell r="AN23">
+            <v>32.054206000000001</v>
+          </cell>
+          <cell r="AO23">
+            <v>32.435676000000001</v>
+          </cell>
+          <cell r="AP23">
+            <v>32.320740999999998</v>
+          </cell>
+          <cell r="AQ23">
+            <v>32.135652999999998</v>
+          </cell>
+          <cell r="AR23">
+            <v>33.007629000000001</v>
+          </cell>
+          <cell r="AS23">
+            <v>33.901860999999997</v>
+          </cell>
+          <cell r="AT23">
+            <v>33.798403999999998</v>
+          </cell>
+          <cell r="AU23">
+            <v>34.487591999999999</v>
+          </cell>
+          <cell r="AV23">
+            <v>34.979571</v>
+          </cell>
+          <cell r="AW23">
+            <v>35.082045999999998</v>
+          </cell>
+          <cell r="AX23">
+            <v>35.170962000000003</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Italy</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v/>
+          </cell>
+          <cell r="D24">
+            <v>22.766959</v>
+          </cell>
+          <cell r="E24">
+            <v>23.784777999999999</v>
+          </cell>
+          <cell r="F24">
+            <v>24.961874000000002</v>
+          </cell>
+          <cell r="G24">
+            <v>26.587057999999999</v>
+          </cell>
+          <cell r="H24">
+            <v>28.059387000000001</v>
+          </cell>
+          <cell r="I24">
+            <v>27.674102000000001</v>
+          </cell>
+          <cell r="J24">
+            <v>29.381699000000001</v>
+          </cell>
+          <cell r="K24">
+            <v>30.601814999999998</v>
+          </cell>
+          <cell r="L24">
+            <v>31.657586999999999</v>
+          </cell>
+          <cell r="M24">
+            <v>33.292228000000001</v>
+          </cell>
+          <cell r="N24">
+            <v>33.924157000000001</v>
+          </cell>
+          <cell r="O24">
+            <v>34.122858999999998</v>
+          </cell>
+          <cell r="P24">
+            <v>33.985875999999998</v>
+          </cell>
+          <cell r="Q24">
+            <v>34.286036000000003</v>
+          </cell>
+          <cell r="R24">
+            <v>35.591005000000003</v>
+          </cell>
+          <cell r="S24">
+            <v>36.312015000000002</v>
+          </cell>
+          <cell r="T24">
+            <v>36.927743999999997</v>
+          </cell>
+          <cell r="U24">
+            <v>37.634278000000002</v>
+          </cell>
+          <cell r="V24">
+            <v>38.721220000000002</v>
+          </cell>
+          <cell r="W24">
+            <v>40.098295999999998</v>
+          </cell>
+          <cell r="X24">
+            <v>40.484515000000002</v>
+          </cell>
+          <cell r="Y24">
+            <v>40.503245</v>
+          </cell>
+          <cell r="Z24">
+            <v>41.070070999999999</v>
+          </cell>
+          <cell r="AA24">
+            <v>41.846899000000001</v>
+          </cell>
+          <cell r="AB24">
+            <v>43.604664</v>
+          </cell>
+          <cell r="AC24">
+            <v>44.897376999999999</v>
+          </cell>
+          <cell r="AD24">
+            <v>44.956954000000003</v>
+          </cell>
+          <cell r="AE24">
+            <v>45.785539999999997</v>
+          </cell>
+          <cell r="AF24">
+            <v>45.725703000000003</v>
+          </cell>
+          <cell r="AG24">
+            <v>46.020127000000002</v>
+          </cell>
+          <cell r="AH24">
+            <v>47.309226000000002</v>
+          </cell>
+          <cell r="AI24">
+            <v>47.555709</v>
+          </cell>
+          <cell r="AJ24">
+            <v>47.173354000000003</v>
+          </cell>
+          <cell r="AK24">
+            <v>46.837815999999997</v>
+          </cell>
+          <cell r="AL24">
+            <v>47.304161000000001</v>
+          </cell>
+          <cell r="AM24">
+            <v>47.573089000000003</v>
+          </cell>
+          <cell r="AN24">
+            <v>47.576650999999998</v>
+          </cell>
+          <cell r="AO24">
+            <v>47.538012000000002</v>
+          </cell>
+          <cell r="AP24">
+            <v>47.226773000000001</v>
+          </cell>
+          <cell r="AQ24">
+            <v>46.198582000000002</v>
+          </cell>
+          <cell r="AR24">
+            <v>47.237957000000002</v>
+          </cell>
+          <cell r="AS24">
+            <v>47.470382000000001</v>
+          </cell>
+          <cell r="AT24">
+            <v>47.320213000000003</v>
+          </cell>
+          <cell r="AU24">
+            <v>47.751367000000002</v>
+          </cell>
+          <cell r="AV24">
+            <v>47.838987000000003</v>
+          </cell>
+          <cell r="AW24">
+            <v>47.979669000000001</v>
+          </cell>
+          <cell r="AX24">
+            <v>47.625853999999997</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Japan</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v/>
+          </cell>
+          <cell r="D25">
+            <v>12.325654</v>
+          </cell>
+          <cell r="E25">
+            <v>12.83733</v>
+          </cell>
+          <cell r="F25">
+            <v>13.913779</v>
+          </cell>
+          <cell r="G25">
+            <v>14.879619</v>
+          </cell>
+          <cell r="H25">
+            <v>15.201408000000001</v>
+          </cell>
+          <cell r="I25">
+            <v>15.89597</v>
+          </cell>
+          <cell r="J25">
+            <v>16.270430000000001</v>
+          </cell>
+          <cell r="K25">
+            <v>16.775523</v>
+          </cell>
+          <cell r="L25">
+            <v>17.538765999999999</v>
+          </cell>
+          <cell r="M25">
+            <v>18.286443999999999</v>
+          </cell>
+          <cell r="N25">
+            <v>18.716532000000001</v>
+          </cell>
+          <cell r="O25">
+            <v>19.488665000000001</v>
+          </cell>
+          <cell r="P25">
+            <v>20.002421999999999</v>
+          </cell>
+          <cell r="Q25">
+            <v>20.394501000000002</v>
+          </cell>
+          <cell r="R25">
+            <v>21.101645999999999</v>
+          </cell>
+          <cell r="S25">
+            <v>22.477066000000001</v>
+          </cell>
+          <cell r="T25">
+            <v>22.951981</v>
+          </cell>
+          <cell r="U25">
+            <v>23.811786000000001</v>
+          </cell>
+          <cell r="V25">
+            <v>25.268943</v>
+          </cell>
+          <cell r="W25">
+            <v>26.518142999999998</v>
+          </cell>
+          <cell r="X25">
+            <v>28.065054</v>
+          </cell>
+          <cell r="Y25">
+            <v>28.889488</v>
+          </cell>
+          <cell r="Z25">
+            <v>29.284784999999999</v>
+          </cell>
+          <cell r="AA25">
+            <v>30.144722000000002</v>
+          </cell>
+          <cell r="AB25">
+            <v>30.482838000000001</v>
+          </cell>
+          <cell r="AC25">
+            <v>31.443021999999999</v>
+          </cell>
+          <cell r="AD25">
+            <v>32.248514999999998</v>
+          </cell>
+          <cell r="AE25">
+            <v>32.831389000000001</v>
+          </cell>
+          <cell r="AF25">
+            <v>33.246842999999998</v>
+          </cell>
+          <cell r="AG25">
+            <v>34.207940999999998</v>
+          </cell>
+          <cell r="AH25">
+            <v>35.202582</v>
+          </cell>
+          <cell r="AI25">
+            <v>35.710687</v>
+          </cell>
+          <cell r="AJ25">
+            <v>36.396414</v>
+          </cell>
+          <cell r="AK25">
+            <v>36.912672999999998</v>
+          </cell>
+          <cell r="AL25">
+            <v>37.764262000000002</v>
+          </cell>
+          <cell r="AM25">
+            <v>38.344442999999998</v>
+          </cell>
+          <cell r="AN25">
+            <v>38.424190000000003</v>
+          </cell>
+          <cell r="AO25">
+            <v>38.730988000000004</v>
+          </cell>
+          <cell r="AP25">
+            <v>38.669018999999999</v>
+          </cell>
+          <cell r="AQ25">
+            <v>38.239113000000003</v>
+          </cell>
+          <cell r="AR25">
+            <v>39.488421000000002</v>
+          </cell>
+          <cell r="AS25">
+            <v>39.580523999999997</v>
+          </cell>
+          <cell r="AT25">
+            <v>39.950578999999998</v>
+          </cell>
+          <cell r="AU25">
+            <v>40.775564000000003</v>
+          </cell>
+          <cell r="AV25">
+            <v>40.791159999999998</v>
+          </cell>
+          <cell r="AW25">
+            <v>41.383783999999999</v>
+          </cell>
+          <cell r="AX25">
+            <v>41.546655999999999</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Korea</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v/>
+          </cell>
+          <cell r="D26">
+            <v>3.3062369999999999</v>
+          </cell>
+          <cell r="E26">
+            <v>3.4454920000000002</v>
+          </cell>
+          <cell r="F26">
+            <v>3.4541119999999998</v>
+          </cell>
+          <cell r="G26">
+            <v>3.6965759999999999</v>
+          </cell>
+          <cell r="H26">
+            <v>3.802902</v>
+          </cell>
+          <cell r="I26">
+            <v>3.9769670000000001</v>
+          </cell>
+          <cell r="J26">
+            <v>4.1130680000000002</v>
+          </cell>
+          <cell r="K26">
+            <v>4.523587</v>
+          </cell>
+          <cell r="L26">
+            <v>4.7342069999999996</v>
+          </cell>
+          <cell r="M26">
+            <v>5.0987429999999998</v>
+          </cell>
+          <cell r="N26">
+            <v>5.0100100000000003</v>
+          </cell>
+          <cell r="O26">
+            <v>5.2104509999999999</v>
+          </cell>
+          <cell r="P26">
+            <v>5.4767099999999997</v>
+          </cell>
+          <cell r="Q26">
+            <v>6.1100490000000001</v>
+          </cell>
+          <cell r="R26">
+            <v>6.7929940000000002</v>
+          </cell>
+          <cell r="S26">
+            <v>7.1161089999999998</v>
+          </cell>
+          <cell r="T26">
+            <v>7.5655970000000003</v>
+          </cell>
+          <cell r="U26">
+            <v>8.1539280000000005</v>
+          </cell>
+          <cell r="V26">
+            <v>8.9896449999999994</v>
+          </cell>
+          <cell r="W26">
+            <v>9.5915739999999996</v>
+          </cell>
+          <cell r="X26">
+            <v>10.433161999999999</v>
+          </cell>
+          <cell r="Y26">
+            <v>11.248023</v>
+          </cell>
+          <cell r="Z26">
+            <v>11.812588</v>
+          </cell>
+          <cell r="AA26">
+            <v>12.393523</v>
+          </cell>
+          <cell r="AB26">
+            <v>13.18971</v>
+          </cell>
+          <cell r="AC26">
+            <v>14.011971000000001</v>
+          </cell>
+          <cell r="AD26">
+            <v>14.816794</v>
+          </cell>
+          <cell r="AE26">
+            <v>15.758467</v>
+          </cell>
+          <cell r="AF26">
+            <v>16.460038999999998</v>
+          </cell>
+          <cell r="AG26">
+            <v>17.955736000000002</v>
+          </cell>
+          <cell r="AH26">
+            <v>18.631989999999998</v>
+          </cell>
+          <cell r="AI26">
+            <v>19.197979</v>
+          </cell>
+          <cell r="AJ26">
+            <v>20.407330999999999</v>
+          </cell>
+          <cell r="AK26">
+            <v>21.310001</v>
+          </cell>
+          <cell r="AL26">
+            <v>22.211653999999999</v>
+          </cell>
+          <cell r="AM26">
+            <v>23.170707</v>
+          </cell>
+          <cell r="AN26">
+            <v>24.115171</v>
+          </cell>
+          <cell r="AO26">
+            <v>25.559649</v>
+          </cell>
+          <cell r="AP26">
+            <v>26.827052999999999</v>
+          </cell>
+          <cell r="AQ26">
+            <v>27.660202000000002</v>
+          </cell>
+          <cell r="AR26">
+            <v>29.205459000000001</v>
+          </cell>
+          <cell r="AS26">
+            <v>30.180478000000001</v>
+          </cell>
+          <cell r="AT26">
+            <v>30.671436</v>
+          </cell>
+          <cell r="AU26">
+            <v>31.207305000000002</v>
+          </cell>
+          <cell r="AV26">
+            <v>31.959074999999999</v>
+          </cell>
+          <cell r="AW26">
+            <v>32.315075999999998</v>
+          </cell>
+          <cell r="AX26">
+            <v>33.056606000000002</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Latvia</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v/>
+          </cell>
+          <cell r="D27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="G27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="H27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="I27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="J27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="K27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="L27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="M27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="N27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="O27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="P27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Q27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="R27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="S27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="T27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="U27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="V27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="W27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="X27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Y27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Z27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AA27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AB27" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AC27">
+            <v>10.795729</v>
+          </cell>
+          <cell r="AD27">
+            <v>10.989392</v>
+          </cell>
+          <cell r="AE27">
+            <v>11.465187</v>
+          </cell>
+          <cell r="AF27">
+            <v>12.258290000000001</v>
+          </cell>
+          <cell r="AG27">
+            <v>12.809117000000001</v>
+          </cell>
+          <cell r="AH27">
+            <v>13.973546000000001</v>
+          </cell>
+          <cell r="AI27">
+            <v>14.554938999999999</v>
+          </cell>
+          <cell r="AJ27">
+            <v>15.756505000000001</v>
+          </cell>
+          <cell r="AK27">
+            <v>17.067936</v>
+          </cell>
+          <cell r="AL27">
+            <v>18.930109999999999</v>
+          </cell>
+          <cell r="AM27">
+            <v>20.475041999999998</v>
+          </cell>
+          <cell r="AN27">
+            <v>21.647216</v>
+          </cell>
+          <cell r="AO27">
+            <v>23.281611999999999</v>
+          </cell>
+          <cell r="AP27">
+            <v>21.244212999999998</v>
+          </cell>
+          <cell r="AQ27">
+            <v>21.774170999999999</v>
+          </cell>
+          <cell r="AR27">
+            <v>22.607012999999998</v>
+          </cell>
+          <cell r="AS27">
+            <v>23.489104999999999</v>
+          </cell>
+          <cell r="AT27">
+            <v>24.307023999999998</v>
+          </cell>
+          <cell r="AU27">
+            <v>24.455546999999999</v>
+          </cell>
+          <cell r="AV27">
+            <v>25.124599</v>
+          </cell>
+          <cell r="AW27">
+            <v>25.905801</v>
+          </cell>
+          <cell r="AX27">
+            <v>26.449442999999999</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Luxembourg</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v/>
+          </cell>
+          <cell r="D28">
+            <v>36.087541000000002</v>
+          </cell>
+          <cell r="E28">
+            <v>35.966284000000002</v>
+          </cell>
+          <cell r="F28">
+            <v>37.754984</v>
+          </cell>
+          <cell r="G28">
+            <v>40.792352999999999</v>
+          </cell>
+          <cell r="H28">
+            <v>41.912717000000001</v>
+          </cell>
+          <cell r="I28">
+            <v>39.299875</v>
+          </cell>
+          <cell r="J28">
+            <v>39.969121000000001</v>
+          </cell>
+          <cell r="K28">
+            <v>41.210897000000003</v>
+          </cell>
+          <cell r="L28">
+            <v>43.579870999999997</v>
+          </cell>
+          <cell r="M28">
+            <v>44.808908000000002</v>
+          </cell>
+          <cell r="N28">
+            <v>45.303815</v>
+          </cell>
+          <cell r="O28">
+            <v>45.569114999999996</v>
+          </cell>
+          <cell r="P28">
+            <v>46.697906000000003</v>
+          </cell>
+          <cell r="Q28">
+            <v>48.412294000000003</v>
+          </cell>
+          <cell r="R28">
+            <v>51.544344000000002</v>
+          </cell>
+          <cell r="S28">
+            <v>52.048599000000003</v>
+          </cell>
+          <cell r="T28">
+            <v>56.207791</v>
+          </cell>
+          <cell r="U28">
+            <v>56.940339000000002</v>
+          </cell>
+          <cell r="V28">
+            <v>59.223865000000004</v>
+          </cell>
+          <cell r="W28">
+            <v>63.285691999999997</v>
+          </cell>
+          <cell r="X28">
+            <v>63.959496999999999</v>
+          </cell>
+          <cell r="Y28">
+            <v>67.539162000000005</v>
+          </cell>
+          <cell r="Z28">
+            <v>67.799195999999995</v>
+          </cell>
+          <cell r="AA28">
+            <v>69.127858000000003</v>
+          </cell>
+          <cell r="AB28">
+            <v>70.816134000000005</v>
+          </cell>
+          <cell r="AC28">
+            <v>72.554090000000002</v>
+          </cell>
+          <cell r="AD28">
+            <v>71.385441999999998</v>
+          </cell>
+          <cell r="AE28">
+            <v>73.055586000000005</v>
+          </cell>
+          <cell r="AF28">
+            <v>74.437815000000001</v>
+          </cell>
+          <cell r="AG28">
+            <v>77.132616999999996</v>
+          </cell>
+          <cell r="AH28">
+            <v>78.768574999999998</v>
+          </cell>
+          <cell r="AI28">
+            <v>77.194508999999996</v>
+          </cell>
+          <cell r="AJ28">
+            <v>78.139233000000004</v>
+          </cell>
+          <cell r="AK28">
+            <v>78.059799999999996</v>
+          </cell>
+          <cell r="AL28">
+            <v>79.070974000000007</v>
+          </cell>
+          <cell r="AM28">
+            <v>80.814761000000004</v>
+          </cell>
+          <cell r="AN28">
+            <v>81.734615000000005</v>
+          </cell>
+          <cell r="AO28">
+            <v>84.068040999999994</v>
+          </cell>
+          <cell r="AP28">
+            <v>79.179867000000002</v>
+          </cell>
+          <cell r="AQ28">
+            <v>77.439459999999997</v>
+          </cell>
+          <cell r="AR28">
+            <v>79.750934999999998</v>
+          </cell>
+          <cell r="AS28">
+            <v>79.509148999999994</v>
+          </cell>
+          <cell r="AT28">
+            <v>77.710454999999996</v>
+          </cell>
+          <cell r="AU28">
+            <v>79.388972999999993</v>
+          </cell>
+          <cell r="AV28">
+            <v>81.573008000000002</v>
+          </cell>
+          <cell r="AW28">
+            <v>81.121475000000004</v>
+          </cell>
+          <cell r="AX28">
+            <v>81.239189999999994</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Mexico</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v/>
+          </cell>
+          <cell r="D29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="G29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="H29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="I29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="J29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="K29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="L29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="M29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="N29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="O29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="P29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Q29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="R29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="S29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="T29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="U29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="V29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="W29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="X29" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Y29">
+            <v>17.178290000000001</v>
+          </cell>
+          <cell r="Z29">
+            <v>17.266656000000001</v>
+          </cell>
+          <cell r="AA29">
+            <v>16.929385</v>
+          </cell>
+          <cell r="AB29">
+            <v>16.808641000000001</v>
+          </cell>
+          <cell r="AC29">
+            <v>15.794553000000001</v>
+          </cell>
+          <cell r="AD29">
+            <v>15.730737</v>
+          </cell>
+          <cell r="AE29">
+            <v>15.53781</v>
+          </cell>
+          <cell r="AF29">
+            <v>16.432084</v>
+          </cell>
+          <cell r="AG29">
+            <v>16.297666</v>
+          </cell>
+          <cell r="AH29">
+            <v>17.52778</v>
+          </cell>
+          <cell r="AI29">
+            <v>17.71238</v>
+          </cell>
+          <cell r="AJ29">
+            <v>17.041467000000001</v>
+          </cell>
+          <cell r="AK29">
+            <v>17.564831000000002</v>
+          </cell>
+          <cell r="AL29">
+            <v>17.856034999999999</v>
+          </cell>
+          <cell r="AM29">
+            <v>17.742749</v>
+          </cell>
+          <cell r="AN29">
+            <v>18.403649999999999</v>
+          </cell>
+          <cell r="AO29">
+            <v>18.82583</v>
+          </cell>
+          <cell r="AP29">
+            <v>18.247253000000001</v>
+          </cell>
+          <cell r="AQ29">
+            <v>18.347973</v>
+          </cell>
+          <cell r="AR29">
+            <v>17.448381000000001</v>
+          </cell>
+          <cell r="AS29">
+            <v>17.982303999999999</v>
+          </cell>
+          <cell r="AT29">
+            <v>18.118798999999999</v>
+          </cell>
+          <cell r="AU29">
+            <v>18.041965999999999</v>
+          </cell>
+          <cell r="AV29">
+            <v>18.46153</v>
+          </cell>
+          <cell r="AW29">
+            <v>18.504417</v>
+          </cell>
+          <cell r="AX29">
+            <v>18.466024999999998</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Netherlands</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v/>
+          </cell>
+          <cell r="D30">
+            <v>27.421385999999998</v>
+          </cell>
+          <cell r="E30">
+            <v>28.828144999999999</v>
+          </cell>
+          <cell r="F30">
+            <v>29.75356</v>
+          </cell>
+          <cell r="G30">
+            <v>31.727253000000001</v>
+          </cell>
+          <cell r="H30">
+            <v>33.88505</v>
+          </cell>
+          <cell r="I30">
+            <v>35.026099000000002</v>
+          </cell>
+          <cell r="J30">
+            <v>36.777810000000002</v>
+          </cell>
+          <cell r="K30">
+            <v>37.913674</v>
+          </cell>
+          <cell r="L30">
+            <v>38.972926000000001</v>
+          </cell>
+          <cell r="M30">
+            <v>39.459859999999999</v>
+          </cell>
+          <cell r="N30">
+            <v>40.071199999999997</v>
+          </cell>
+          <cell r="O30">
+            <v>39.935720000000003</v>
+          </cell>
+          <cell r="P30">
+            <v>40.403894000000001</v>
+          </cell>
+          <cell r="Q30">
+            <v>42.018476999999997</v>
+          </cell>
+          <cell r="R30">
+            <v>43.179997</v>
+          </cell>
+          <cell r="S30">
+            <v>43.973077000000004</v>
+          </cell>
+          <cell r="T30">
+            <v>44.574088000000003</v>
+          </cell>
+          <cell r="U30">
+            <v>45.120758000000002</v>
+          </cell>
+          <cell r="V30">
+            <v>45.938744999999997</v>
+          </cell>
+          <cell r="W30">
+            <v>46.875495000000001</v>
+          </cell>
+          <cell r="X30">
+            <v>47.553950999999998</v>
+          </cell>
+          <cell r="Y30">
+            <v>48.094808</v>
+          </cell>
+          <cell r="Z30">
+            <v>48.036965000000002</v>
+          </cell>
+          <cell r="AA30">
+            <v>48.774261000000003</v>
+          </cell>
+          <cell r="AB30">
+            <v>49.631010000000003</v>
+          </cell>
+          <cell r="AC30">
+            <v>48.900599999999997</v>
+          </cell>
+          <cell r="AD30">
+            <v>49.109802000000002</v>
+          </cell>
+          <cell r="AE30">
+            <v>50.172114000000001</v>
+          </cell>
+          <cell r="AF30">
+            <v>51.354404000000002</v>
+          </cell>
+          <cell r="AG30">
+            <v>52.480530999999999</v>
+          </cell>
+          <cell r="AH30">
+            <v>54.213262</v>
+          </cell>
+          <cell r="AI30">
+            <v>54.678668999999999</v>
+          </cell>
+          <cell r="AJ30">
+            <v>55.012439000000001</v>
+          </cell>
+          <cell r="AK30">
+            <v>55.799253</v>
+          </cell>
+          <cell r="AL30">
+            <v>56.771289000000003</v>
+          </cell>
+          <cell r="AM30">
+            <v>58.168945999999998</v>
+          </cell>
+          <cell r="AN30">
+            <v>59.071764000000002</v>
+          </cell>
+          <cell r="AO30">
+            <v>59.526277</v>
+          </cell>
+          <cell r="AP30">
+            <v>59.554076999999999</v>
+          </cell>
+          <cell r="AQ30">
+            <v>58.131100000000004</v>
+          </cell>
+          <cell r="AR30">
+            <v>59.375934000000001</v>
+          </cell>
+          <cell r="AS30">
+            <v>59.799205999999998</v>
+          </cell>
+          <cell r="AT30">
+            <v>59.677981000000003</v>
+          </cell>
+          <cell r="AU30">
+            <v>60.085462</v>
+          </cell>
+          <cell r="AV30">
+            <v>60.511741999999998</v>
+          </cell>
+          <cell r="AW30">
+            <v>61.516897</v>
+          </cell>
+          <cell r="AX30">
+            <v>61.650728999999998</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>New Zealand</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v/>
+          </cell>
+          <cell r="D31">
+            <v>21.382072000000001</v>
+          </cell>
+          <cell r="E31">
+            <v>21.975926000000001</v>
+          </cell>
+          <cell r="F31">
+            <v>22.897831</v>
+          </cell>
+          <cell r="G31">
+            <v>23.918189999999999</v>
+          </cell>
+          <cell r="H31">
+            <v>24.326543999999998</v>
+          </cell>
+          <cell r="I31">
+            <v>23.542625999999998</v>
+          </cell>
+          <cell r="J31">
+            <v>23.407730999999998</v>
+          </cell>
+          <cell r="K31">
+            <v>22.193042999999999</v>
+          </cell>
+          <cell r="L31">
+            <v>22.431823999999999</v>
+          </cell>
+          <cell r="M31">
+            <v>22.666710999999999</v>
+          </cell>
+          <cell r="N31">
+            <v>22.999063</v>
+          </cell>
+          <cell r="O31">
+            <v>23.937964999999998</v>
+          </cell>
+          <cell r="P31">
+            <v>24.142164000000001</v>
+          </cell>
+          <cell r="Q31">
+            <v>25.270934</v>
+          </cell>
+          <cell r="R31">
+            <v>25.663101000000001</v>
+          </cell>
+          <cell r="S31">
+            <v>25.408579</v>
+          </cell>
+          <cell r="T31">
+            <v>26.249037999999999</v>
+          </cell>
+          <cell r="U31">
+            <v>24.953797999999999</v>
+          </cell>
+          <cell r="V31">
+            <v>26.397283000000002</v>
+          </cell>
+          <cell r="W31">
+            <v>27.603781000000001</v>
+          </cell>
+          <cell r="X31">
+            <v>28.581737</v>
+          </cell>
+          <cell r="Y31">
+            <v>28.069908999999999</v>
+          </cell>
+          <cell r="Z31">
+            <v>29.123241</v>
+          </cell>
+          <cell r="AA31">
+            <v>29.818784000000001</v>
+          </cell>
+          <cell r="AB31">
+            <v>29.911311000000001</v>
+          </cell>
+          <cell r="AC31">
+            <v>30.233854999999998</v>
+          </cell>
+          <cell r="AD31">
+            <v>30.334613999999998</v>
+          </cell>
+          <cell r="AE31">
+            <v>31.339376999999999</v>
+          </cell>
+          <cell r="AF31">
+            <v>30.837509000000001</v>
+          </cell>
+          <cell r="AG31">
+            <v>31.158144</v>
+          </cell>
+          <cell r="AH31">
+            <v>32.091276000000001</v>
+          </cell>
+          <cell r="AI31">
+            <v>32.669119000000002</v>
+          </cell>
+          <cell r="AJ31">
+            <v>33.304808000000001</v>
+          </cell>
+          <cell r="AK31">
+            <v>33.926378999999997</v>
+          </cell>
+          <cell r="AL31">
+            <v>33.793325000000003</v>
+          </cell>
+          <cell r="AM31">
+            <v>33.757033</v>
+          </cell>
+          <cell r="AN31">
+            <v>34.250481000000001</v>
+          </cell>
+          <cell r="AO31">
+            <v>35.577742000000001</v>
+          </cell>
+          <cell r="AP31">
+            <v>34.459372000000002</v>
+          </cell>
+          <cell r="AQ31">
+            <v>36.255322</v>
+          </cell>
+          <cell r="AR31">
+            <v>35.903567000000002</v>
+          </cell>
+          <cell r="AS31">
+            <v>36.611232000000001</v>
+          </cell>
+          <cell r="AT31">
+            <v>37.933826000000003</v>
+          </cell>
+          <cell r="AU31">
+            <v>37.206071000000001</v>
+          </cell>
+          <cell r="AV31">
+            <v>36.910854</v>
+          </cell>
+          <cell r="AW31">
+            <v>37.546781000000003</v>
+          </cell>
+          <cell r="AX31">
+            <v>37.460189</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Norway</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v/>
+          </cell>
+          <cell r="D32">
+            <v>27.474073000000001</v>
+          </cell>
+          <cell r="E32">
+            <v>29.138943000000001</v>
+          </cell>
+          <cell r="F32">
+            <v>30.898142</v>
+          </cell>
+          <cell r="G32">
+            <v>32.33128</v>
+          </cell>
+          <cell r="H32">
+            <v>33.565831000000003</v>
+          </cell>
+          <cell r="I32">
+            <v>34.993246999999997</v>
+          </cell>
+          <cell r="J32">
+            <v>36.982503000000001</v>
+          </cell>
+          <cell r="K32">
+            <v>38.304561</v>
+          </cell>
+          <cell r="L32">
+            <v>39.998463999999998</v>
+          </cell>
+          <cell r="M32">
+            <v>41.733516999999999</v>
+          </cell>
+          <cell r="N32">
+            <v>42.618040999999998</v>
+          </cell>
+          <cell r="O32">
+            <v>43.019750999999999</v>
+          </cell>
+          <cell r="P32">
+            <v>43.415188999999998</v>
+          </cell>
+          <cell r="Q32">
+            <v>45.390670999999998</v>
+          </cell>
+          <cell r="R32">
+            <v>47.934341000000003</v>
+          </cell>
+          <cell r="S32">
+            <v>49.422620000000002</v>
+          </cell>
+          <cell r="T32">
+            <v>49.929076000000002</v>
+          </cell>
+          <cell r="U32">
+            <v>50.695028000000001</v>
+          </cell>
+          <cell r="V32">
+            <v>50.753087999999998</v>
+          </cell>
+          <cell r="W32">
+            <v>52.881529999999998</v>
+          </cell>
+          <cell r="X32">
+            <v>54.669998</v>
+          </cell>
+          <cell r="Y32">
+            <v>57.019838999999997</v>
+          </cell>
+          <cell r="Z32">
+            <v>58.788814000000002</v>
+          </cell>
+          <cell r="AA32">
+            <v>60.167752</v>
+          </cell>
+          <cell r="AB32">
+            <v>62.440876000000003</v>
+          </cell>
+          <cell r="AC32">
+            <v>64.436667</v>
+          </cell>
+          <cell r="AD32">
+            <v>66.578855000000004</v>
+          </cell>
+          <cell r="AE32">
+            <v>68.328385999999995</v>
+          </cell>
+          <cell r="AF32">
+            <v>68.395588000000004</v>
+          </cell>
+          <cell r="AG32">
+            <v>69.177657999999994</v>
+          </cell>
+          <cell r="AH32">
+            <v>71.859837999999996</v>
+          </cell>
+          <cell r="AI32">
+            <v>74.415451000000004</v>
+          </cell>
+          <cell r="AJ32">
+            <v>75.964239000000006</v>
+          </cell>
+          <cell r="AK32">
+            <v>78.246837999999997</v>
+          </cell>
+          <cell r="AL32">
+            <v>79.722192000000007</v>
+          </cell>
+          <cell r="AM32">
+            <v>80.548873999999998</v>
+          </cell>
+          <cell r="AN32">
+            <v>79.910312000000005</v>
+          </cell>
+          <cell r="AO32">
+            <v>78.515872000000002</v>
+          </cell>
+          <cell r="AP32">
+            <v>76.190250000000006</v>
+          </cell>
+          <cell r="AQ32">
+            <v>76.403530000000003</v>
+          </cell>
+          <cell r="AR32">
+            <v>76.827910000000003</v>
+          </cell>
+          <cell r="AS32">
+            <v>76.233932999999993</v>
+          </cell>
+          <cell r="AT32">
+            <v>76.817724999999996</v>
+          </cell>
+          <cell r="AU32">
+            <v>77.357703000000001</v>
+          </cell>
+          <cell r="AV32">
+            <v>77.813573000000005</v>
+          </cell>
+          <cell r="AW32">
+            <v>78.901490999999993</v>
+          </cell>
+          <cell r="AX32">
+            <v>79.177222</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Poland</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v/>
+          </cell>
+          <cell r="D33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="F33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="G33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="H33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="I33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="J33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="K33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="L33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="M33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="N33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="O33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="P33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Q33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="R33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="S33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="T33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="U33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="V33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="W33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="X33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Y33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Z33" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AA33">
+            <v>12.167062</v>
+          </cell>
+          <cell r="AB33">
+            <v>12.931117</v>
+          </cell>
+          <cell r="AC33">
+            <v>13.723535</v>
+          </cell>
+          <cell r="AD33">
+            <v>14.381401</v>
+          </cell>
+          <cell r="AE33">
+            <v>15.0967</v>
+          </cell>
+          <cell r="AF33">
+            <v>15.611523999999999</v>
+          </cell>
+          <cell r="AG33">
+            <v>17.021035999999999</v>
+          </cell>
+          <cell r="AH33">
+            <v>18.067927000000001</v>
+          </cell>
+          <cell r="AI33">
+            <v>18.690225999999999</v>
+          </cell>
+          <cell r="AJ33">
+            <v>19.714801000000001</v>
+          </cell>
+          <cell r="AK33">
+            <v>20.60106</v>
+          </cell>
+          <cell r="AL33">
+            <v>21.412635000000002</v>
+          </cell>
+          <cell r="AM33">
+            <v>21.750201000000001</v>
+          </cell>
+          <cell r="AN33">
+            <v>22.366223999999999</v>
+          </cell>
+          <cell r="AO33">
+            <v>22.942471999999999</v>
+          </cell>
+          <cell r="AP33">
+            <v>23.130965</v>
+          </cell>
+          <cell r="AQ33">
+            <v>23.876681000000001</v>
+          </cell>
+          <cell r="AR33">
+            <v>25.476918999999999</v>
+          </cell>
+          <cell r="AS33">
+            <v>26.672263999999998</v>
+          </cell>
+          <cell r="AT33">
+            <v>27.139362999999999</v>
+          </cell>
+          <cell r="AU33">
+            <v>27.586200000000002</v>
+          </cell>
+          <cell r="AV33">
+            <v>27.917836999999999</v>
+          </cell>
+          <cell r="AW33">
+            <v>28.450157999999998</v>
+          </cell>
+          <cell r="AX33">
+            <v>29.080635000000001</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Portugal</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v/>
+          </cell>
+          <cell r="D34">
+            <v>13.538398000000001</v>
+          </cell>
+          <cell r="E34">
+            <v>14.18404</v>
+          </cell>
+          <cell r="F34">
+            <v>15.401335</v>
+          </cell>
+          <cell r="G34">
+            <v>17.268689999999999</v>
+          </cell>
+          <cell r="H34">
+            <v>16.238621999999999</v>
+          </cell>
+          <cell r="I34">
+            <v>14.839810999999999</v>
+          </cell>
+          <cell r="J34">
+            <v>15.677569</v>
+          </cell>
+          <cell r="K34">
+            <v>16.455697000000001</v>
+          </cell>
+          <cell r="L34">
+            <v>17.079742</v>
+          </cell>
+          <cell r="M34">
+            <v>17.951015000000002</v>
+          </cell>
+          <cell r="N34">
+            <v>18.536615000000001</v>
+          </cell>
+          <cell r="O34">
+            <v>18.907121</v>
+          </cell>
+          <cell r="P34">
+            <v>19.512799000000001</v>
+          </cell>
+          <cell r="Q34">
+            <v>18.787935000000001</v>
+          </cell>
+          <cell r="R34">
+            <v>18.639267</v>
+          </cell>
+          <cell r="S34">
+            <v>19.391898000000001</v>
+          </cell>
+          <cell r="T34">
+            <v>20.286535000000001</v>
+          </cell>
+          <cell r="U34">
+            <v>20.856332999999999</v>
+          </cell>
+          <cell r="V34">
+            <v>21.855931000000002</v>
+          </cell>
+          <cell r="W34">
+            <v>22.508365999999999</v>
+          </cell>
+          <cell r="X34">
+            <v>23.040842000000001</v>
+          </cell>
+          <cell r="Y34">
+            <v>24.244105999999999</v>
+          </cell>
+          <cell r="Z34">
+            <v>25.114815</v>
+          </cell>
+          <cell r="AA34">
+            <v>25.083933999999999</v>
+          </cell>
+          <cell r="AB34">
+            <v>25.245432000000001</v>
+          </cell>
+          <cell r="AC34">
+            <v>25.662998000000002</v>
+          </cell>
+          <cell r="AD34">
+            <v>26.108560000000001</v>
+          </cell>
+          <cell r="AE34">
+            <v>26.635314999999999</v>
+          </cell>
+          <cell r="AF34">
+            <v>26.926465</v>
+          </cell>
+          <cell r="AG34">
+            <v>27.521820000000002</v>
+          </cell>
+          <cell r="AH34">
+            <v>27.807071000000001</v>
+          </cell>
+          <cell r="AI34">
+            <v>28.099692000000001</v>
+          </cell>
+          <cell r="AJ34">
+            <v>28.308823</v>
+          </cell>
+          <cell r="AK34">
+            <v>28.422269</v>
+          </cell>
+          <cell r="AL34">
+            <v>29.047884</v>
+          </cell>
+          <cell r="AM34">
+            <v>29.373737999999999</v>
+          </cell>
+          <cell r="AN34">
+            <v>29.899940000000001</v>
+          </cell>
+          <cell r="AO34">
+            <v>30.366510999999999</v>
+          </cell>
+          <cell r="AP34">
+            <v>30.526278000000001</v>
+          </cell>
+          <cell r="AQ34">
+            <v>30.443594999999998</v>
+          </cell>
+          <cell r="AR34">
+            <v>31.425367000000001</v>
+          </cell>
+          <cell r="AS34">
+            <v>31.852906999999998</v>
+          </cell>
+          <cell r="AT34">
+            <v>32.175007999999998</v>
+          </cell>
+          <cell r="AU34">
+            <v>32.572153999999998</v>
+          </cell>
+          <cell r="AV34">
+            <v>32.270879000000001</v>
+          </cell>
+          <cell r="AW34">
+            <v>32.269049000000003</v>
+          </cell>
+          <cell r="AX34">
+            <v>32.418081000000001</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Slovak Republic</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v/>
+          </cell>
+          <cell r="D35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="H35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="J35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="K35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="L35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="M35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="N35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="O35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="P35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Q35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="R35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="S35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="T35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="U35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="V35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="W35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="X35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Y35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Z35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AA35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AB35" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AC35">
+            <v>17.996917</v>
+          </cell>
+          <cell r="AD35">
+            <v>19.166343999999999</v>
+          </cell>
+          <cell r="AE35">
+            <v>20.424907999999999</v>
+          </cell>
+          <cell r="AF35">
+            <v>21.440317</v>
+          </cell>
+          <cell r="AG35">
+            <v>22.020429</v>
+          </cell>
+          <cell r="AH35">
+            <v>22.738869000000001</v>
+          </cell>
+          <cell r="AI35">
+            <v>23.551382</v>
+          </cell>
+          <cell r="AJ35">
+            <v>25.247852999999999</v>
+          </cell>
+          <cell r="AK35">
+            <v>27.207515000000001</v>
+          </cell>
+          <cell r="AL35">
+            <v>27.972248</v>
+          </cell>
+          <cell r="AM35">
+            <v>28.929748</v>
+          </cell>
+          <cell r="AN35">
+            <v>30.649381000000002</v>
+          </cell>
+          <cell r="AO35">
+            <v>32.952959</v>
+          </cell>
+          <cell r="AP35">
+            <v>33.680669000000002</v>
+          </cell>
+          <cell r="AQ35">
+            <v>32.727787999999997</v>
+          </cell>
+          <cell r="AR35">
+            <v>34.426270000000002</v>
+          </cell>
+          <cell r="AS35">
+            <v>35.015262999999997</v>
+          </cell>
+          <cell r="AT35">
+            <v>35.65643</v>
+          </cell>
+          <cell r="AU35">
+            <v>36.830325000000002</v>
+          </cell>
+          <cell r="AV35">
+            <v>37.571803000000003</v>
+          </cell>
+          <cell r="AW35">
+            <v>38.382503</v>
+          </cell>
+          <cell r="AX35">
+            <v>39.050142999999998</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Slovenia</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v/>
+          </cell>
+          <cell r="D36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="I36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="J36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="K36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="L36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="M36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="N36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="O36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="P36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Q36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="R36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="S36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="T36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="U36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="V36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="W36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="X36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Y36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Z36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AA36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AB36" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AC36">
+            <v>21.950158999999999</v>
+          </cell>
+          <cell r="AD36">
+            <v>23.555835999999999</v>
+          </cell>
+          <cell r="AE36">
+            <v>25.407240999999999</v>
+          </cell>
+          <cell r="AF36">
+            <v>26.069617999999998</v>
+          </cell>
+          <cell r="AG36">
+            <v>27.001308000000002</v>
+          </cell>
+          <cell r="AH36">
+            <v>28.009450999999999</v>
+          </cell>
+          <cell r="AI36">
+            <v>28.912078000000001</v>
+          </cell>
+          <cell r="AJ36">
+            <v>29.131854000000001</v>
+          </cell>
+          <cell r="AK36">
+            <v>29.994161999999999</v>
+          </cell>
+          <cell r="AL36">
+            <v>30.979248999999999</v>
+          </cell>
+          <cell r="AM36">
+            <v>33.138710000000003</v>
+          </cell>
+          <cell r="AN36">
+            <v>35.072394000000003</v>
+          </cell>
+          <cell r="AO36">
+            <v>36.564425</v>
+          </cell>
+          <cell r="AP36">
+            <v>36.415210999999999</v>
+          </cell>
+          <cell r="AQ36">
+            <v>34.084018</v>
+          </cell>
+          <cell r="AR36">
+            <v>35.222734000000003</v>
+          </cell>
+          <cell r="AS36">
+            <v>36.422066999999998</v>
+          </cell>
+          <cell r="AT36">
+            <v>36.185941</v>
+          </cell>
+          <cell r="AU36">
+            <v>35.795456000000001</v>
+          </cell>
+          <cell r="AV36">
+            <v>36.304049999999997</v>
+          </cell>
+          <cell r="AW36">
+            <v>36.540194</v>
+          </cell>
+          <cell r="AX36">
+            <v>37.441091</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Spain</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v/>
+          </cell>
+          <cell r="D37">
+            <v>17.701173000000001</v>
+          </cell>
+          <cell r="E37">
+            <v>18.426739999999999</v>
+          </cell>
+          <cell r="F37">
+            <v>19.909037999999999</v>
+          </cell>
+          <cell r="G37">
+            <v>21.166857</v>
+          </cell>
+          <cell r="H37">
+            <v>22.131734000000002</v>
+          </cell>
+          <cell r="I37">
+            <v>22.508557</v>
+          </cell>
+          <cell r="J37">
+            <v>23.385058999999998</v>
+          </cell>
+          <cell r="K37">
+            <v>24.291998</v>
+          </cell>
+          <cell r="L37">
+            <v>25.424541000000001</v>
+          </cell>
+          <cell r="M37">
+            <v>26.463211999999999</v>
+          </cell>
+          <cell r="N37">
+            <v>28.062636000000001</v>
+          </cell>
+          <cell r="O37">
+            <v>29.227284999999998</v>
+          </cell>
+          <cell r="P37">
+            <v>30.196926000000001</v>
+          </cell>
+          <cell r="Q37">
+            <v>31.373228000000001</v>
+          </cell>
+          <cell r="R37">
+            <v>33.478399000000003</v>
+          </cell>
+          <cell r="S37">
+            <v>34.803646000000001</v>
+          </cell>
+          <cell r="T37">
+            <v>35.279335000000003</v>
+          </cell>
+          <cell r="U37">
+            <v>35.693702999999999</v>
+          </cell>
+          <cell r="V37">
+            <v>36.324142000000002</v>
+          </cell>
+          <cell r="W37">
+            <v>36.996941</v>
+          </cell>
+          <cell r="X37">
+            <v>36.948188000000002</v>
+          </cell>
+          <cell r="Y37">
+            <v>37.249535999999999</v>
+          </cell>
+          <cell r="Z37">
+            <v>38.299135</v>
+          </cell>
+          <cell r="AA37">
+            <v>39.188614999999999</v>
+          </cell>
+          <cell r="AB37">
+            <v>40.336385999999997</v>
+          </cell>
+          <cell r="AC37">
+            <v>40.673746000000001</v>
+          </cell>
+          <cell r="AD37">
+            <v>41.133316999999998</v>
+          </cell>
+          <cell r="AE37">
+            <v>41.0595</v>
+          </cell>
+          <cell r="AF37">
+            <v>40.830474000000002</v>
+          </cell>
+          <cell r="AG37">
+            <v>40.686489999999999</v>
+          </cell>
+          <cell r="AH37">
+            <v>40.887397</v>
+          </cell>
+          <cell r="AI37">
+            <v>40.923054999999998</v>
+          </cell>
+          <cell r="AJ37">
+            <v>40.994200999999997</v>
+          </cell>
+          <cell r="AK37">
+            <v>41.139628999999999</v>
+          </cell>
+          <cell r="AL37">
+            <v>41.241422</v>
+          </cell>
+          <cell r="AM37">
+            <v>41.395119999999999</v>
+          </cell>
+          <cell r="AN37">
+            <v>41.636299999999999</v>
+          </cell>
+          <cell r="AO37">
+            <v>42.132801000000001</v>
+          </cell>
+          <cell r="AP37">
+            <v>42.300310000000003</v>
+          </cell>
+          <cell r="AQ37">
+            <v>43.337511999999997</v>
+          </cell>
+          <cell r="AR37">
+            <v>44.349367000000001</v>
+          </cell>
+          <cell r="AS37">
+            <v>44.982553000000003</v>
+          </cell>
+          <cell r="AT37">
+            <v>45.881202999999999</v>
+          </cell>
+          <cell r="AU37">
+            <v>46.521847999999999</v>
+          </cell>
+          <cell r="AV37">
+            <v>46.671391999999997</v>
+          </cell>
+          <cell r="AW37">
+            <v>46.880623</v>
+          </cell>
+          <cell r="AX37">
+            <v>47.175539999999998</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Sweden</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v/>
+          </cell>
+          <cell r="D38">
+            <v>24.908379</v>
+          </cell>
+          <cell r="E38">
+            <v>25.667384999999999</v>
+          </cell>
+          <cell r="F38">
+            <v>26.800401999999998</v>
+          </cell>
+          <cell r="G38">
+            <v>28.030170999999999</v>
+          </cell>
+          <cell r="H38">
+            <v>28.696059000000002</v>
+          </cell>
+          <cell r="I38">
+            <v>29.292563000000001</v>
+          </cell>
+          <cell r="J38">
+            <v>29.281444</v>
+          </cell>
+          <cell r="K38">
+            <v>29.360393999999999</v>
+          </cell>
+          <cell r="L38">
+            <v>30.473374</v>
+          </cell>
+          <cell r="M38">
+            <v>31.463214000000001</v>
+          </cell>
+          <cell r="N38">
+            <v>31.557500000000001</v>
+          </cell>
+          <cell r="O38">
+            <v>31.826606999999999</v>
+          </cell>
+          <cell r="P38">
+            <v>31.985001</v>
+          </cell>
+          <cell r="Q38">
+            <v>32.321384000000002</v>
+          </cell>
+          <cell r="R38">
+            <v>33.362757999999999</v>
+          </cell>
+          <cell r="S38">
+            <v>33.647260000000003</v>
+          </cell>
+          <cell r="T38">
+            <v>34.385188999999997</v>
+          </cell>
+          <cell r="U38">
+            <v>35.026085999999999</v>
+          </cell>
+          <cell r="V38">
+            <v>34.992736000000001</v>
+          </cell>
+          <cell r="W38">
+            <v>35.431455999999997</v>
+          </cell>
+          <cell r="X38">
+            <v>35.455719999999999</v>
+          </cell>
+          <cell r="Y38">
+            <v>35.887554999999999</v>
+          </cell>
+          <cell r="Z38">
+            <v>36.706260999999998</v>
+          </cell>
+          <cell r="AA38">
+            <v>37.5246</v>
+          </cell>
+          <cell r="AB38">
+            <v>38.511620000000001</v>
+          </cell>
+          <cell r="AC38">
+            <v>39.299885000000003</v>
+          </cell>
+          <cell r="AD38">
+            <v>39.908954000000001</v>
+          </cell>
+          <cell r="AE38">
+            <v>41.478121000000002</v>
+          </cell>
+          <cell r="AF38">
+            <v>42.556542999999998</v>
+          </cell>
+          <cell r="AG38">
+            <v>43.347607000000004</v>
+          </cell>
+          <cell r="AH38">
+            <v>44.927334000000002</v>
+          </cell>
+          <cell r="AI38">
+            <v>45.348661</v>
+          </cell>
+          <cell r="AJ38">
+            <v>46.943769000000003</v>
+          </cell>
+          <cell r="AK38">
+            <v>48.748978000000001</v>
+          </cell>
+          <cell r="AL38">
+            <v>50.451251999999997</v>
+          </cell>
+          <cell r="AM38">
+            <v>51.750362000000003</v>
+          </cell>
+          <cell r="AN38">
+            <v>53.471392000000002</v>
+          </cell>
+          <cell r="AO38">
+            <v>53.630737000000003</v>
+          </cell>
+          <cell r="AP38">
+            <v>52.679834999999997</v>
+          </cell>
+          <cell r="AQ38">
+            <v>51.431880999999997</v>
+          </cell>
+          <cell r="AR38">
+            <v>53.138209000000003</v>
+          </cell>
+          <cell r="AS38">
+            <v>53.496575</v>
+          </cell>
+          <cell r="AT38">
+            <v>53.416485999999999</v>
+          </cell>
+          <cell r="AU38">
+            <v>53.887082999999997</v>
+          </cell>
+          <cell r="AV38">
+            <v>54.500985</v>
+          </cell>
+          <cell r="AW38">
+            <v>56.113404000000003</v>
+          </cell>
+          <cell r="AX38">
+            <v>56.416024999999998</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Switzerland</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v/>
+          </cell>
+          <cell r="D39">
+            <v>32.268447999999999</v>
+          </cell>
+          <cell r="E39">
+            <v>33.157941000000001</v>
+          </cell>
+          <cell r="F39">
+            <v>34.139195000000001</v>
+          </cell>
+          <cell r="G39">
+            <v>35.334195000000001</v>
+          </cell>
+          <cell r="H39">
+            <v>36.414076999999999</v>
+          </cell>
+          <cell r="I39">
+            <v>35.626772000000003</v>
+          </cell>
+          <cell r="J39">
+            <v>36.392525999999997</v>
+          </cell>
+          <cell r="K39">
+            <v>37.516004000000002</v>
+          </cell>
+          <cell r="L39">
+            <v>37.54045</v>
+          </cell>
+          <cell r="M39">
+            <v>38.378731999999999</v>
+          </cell>
+          <cell r="N39">
+            <v>39.586975000000002</v>
+          </cell>
+          <cell r="O39">
+            <v>39.747812000000003</v>
+          </cell>
+          <cell r="P39">
+            <v>39.126603000000003</v>
+          </cell>
+          <cell r="Q39">
+            <v>39.922469</v>
+          </cell>
+          <cell r="R39">
+            <v>41.359192999999998</v>
+          </cell>
+          <cell r="S39">
+            <v>42.205446999999999</v>
+          </cell>
+          <cell r="T39">
+            <v>42.184882999999999</v>
+          </cell>
+          <cell r="U39">
+            <v>41.831721999999999</v>
+          </cell>
+          <cell r="V39">
+            <v>42.120869999999996</v>
+          </cell>
+          <cell r="W39">
+            <v>43.153390999999999</v>
+          </cell>
+          <cell r="X39">
+            <v>43.602694</v>
+          </cell>
+          <cell r="Y39">
+            <v>44.884459999999997</v>
+          </cell>
+          <cell r="Z39">
+            <v>45.281689</v>
+          </cell>
+          <cell r="AA39">
+            <v>45.696334999999998</v>
+          </cell>
+          <cell r="AB39">
+            <v>46.016373000000002</v>
+          </cell>
+          <cell r="AC39">
+            <v>46.837297</v>
+          </cell>
+          <cell r="AD39">
+            <v>47.872957999999997</v>
+          </cell>
+          <cell r="AE39">
+            <v>49.338608999999998</v>
+          </cell>
+          <cell r="AF39">
+            <v>49.909166999999997</v>
+          </cell>
+          <cell r="AG39">
+            <v>49.704157000000002</v>
+          </cell>
+          <cell r="AH39">
+            <v>51.300248000000003</v>
+          </cell>
+          <cell r="AI39">
+            <v>52.342253999999997</v>
+          </cell>
+          <cell r="AJ39">
+            <v>52.736046999999999</v>
+          </cell>
+          <cell r="AK39">
+            <v>52.523310000000002</v>
+          </cell>
+          <cell r="AL39">
+            <v>52.866773000000002</v>
+          </cell>
+          <cell r="AM39">
+            <v>54.277374999999999</v>
+          </cell>
+          <cell r="AN39">
+            <v>55.592216999999998</v>
+          </cell>
+          <cell r="AO39">
+            <v>56.771920999999999</v>
+          </cell>
+          <cell r="AP39">
+            <v>56.960608000000001</v>
+          </cell>
+          <cell r="AQ39">
+            <v>55.726539000000002</v>
+          </cell>
+          <cell r="AR39">
+            <v>57.177140999999999</v>
+          </cell>
+          <cell r="AS39">
+            <v>56.876081999999997</v>
+          </cell>
+          <cell r="AT39">
+            <v>57.027455000000003</v>
+          </cell>
+          <cell r="AU39">
+            <v>58.096263999999998</v>
+          </cell>
+          <cell r="AV39">
+            <v>58.704349999999998</v>
+          </cell>
+          <cell r="AW39">
+            <v>58.018132999999999</v>
+          </cell>
+          <cell r="AX39">
+            <v>57.982734000000001</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Turkey</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v/>
+          </cell>
+          <cell r="D40">
+            <v>9.8779690000000002</v>
+          </cell>
+          <cell r="E40">
+            <v>10.297393</v>
+          </cell>
+          <cell r="F40">
+            <v>10.807287000000001</v>
+          </cell>
+          <cell r="G40">
+            <v>11.002413000000001</v>
+          </cell>
+          <cell r="H40">
+            <v>11.417260000000001</v>
+          </cell>
+          <cell r="I40">
+            <v>12.183541</v>
+          </cell>
+          <cell r="J40">
+            <v>13.379286</v>
+          </cell>
+          <cell r="K40">
+            <v>13.518753</v>
+          </cell>
+          <cell r="L40">
+            <v>13.652393999999999</v>
+          </cell>
+          <cell r="M40">
+            <v>13.482048000000001</v>
+          </cell>
+          <cell r="N40">
+            <v>13.038817999999999</v>
+          </cell>
+          <cell r="O40">
+            <v>13.606450000000001</v>
+          </cell>
+          <cell r="P40">
+            <v>13.998737999999999</v>
+          </cell>
+          <cell r="Q40">
+            <v>14.610619</v>
+          </cell>
+          <cell r="R40">
+            <v>15.885562</v>
+          </cell>
+          <cell r="S40">
+            <v>16.058375999999999</v>
+          </cell>
+          <cell r="T40">
+            <v>17.014638999999999</v>
+          </cell>
+          <cell r="U40">
+            <v>18.605682999999999</v>
+          </cell>
+          <cell r="V40">
+            <v>18.793631999999999</v>
+          </cell>
+          <cell r="W40">
+            <v>18.075763999999999</v>
+          </cell>
+          <cell r="X40">
+            <v>19.431342000000001</v>
+          </cell>
+          <cell r="Y40">
+            <v>18.827711000000001</v>
+          </cell>
+          <cell r="Z40">
+            <v>19.500899</v>
+          </cell>
+          <cell r="AA40">
+            <v>21.902792000000002</v>
+          </cell>
+          <cell r="AB40">
+            <v>19.502400999999999</v>
+          </cell>
+          <cell r="AC40">
+            <v>20.438212</v>
+          </cell>
+          <cell r="AD40">
+            <v>21.077278</v>
+          </cell>
+          <cell r="AE40">
+            <v>22.821528000000001</v>
+          </cell>
+          <cell r="AF40">
+            <v>22.847984</v>
+          </cell>
+          <cell r="AG40">
+            <v>21.345725999999999</v>
+          </cell>
+          <cell r="AH40">
+            <v>23.100518000000001</v>
+          </cell>
+          <cell r="AI40">
+            <v>21.674621999999999</v>
+          </cell>
+          <cell r="AJ40">
+            <v>23.126916000000001</v>
+          </cell>
+          <cell r="AK40">
+            <v>24.617090999999999</v>
+          </cell>
+          <cell r="AL40">
+            <v>26.829639</v>
+          </cell>
+          <cell r="AM40">
+            <v>28.362193999999999</v>
+          </cell>
+          <cell r="AN40">
+            <v>29.740234000000001</v>
+          </cell>
+          <cell r="AO40">
+            <v>31.316607000000001</v>
+          </cell>
+          <cell r="AP40">
+            <v>31.222034000000001</v>
+          </cell>
+          <cell r="AQ40">
+            <v>29.971620999999999</v>
+          </cell>
+          <cell r="AR40">
+            <v>30.743901999999999</v>
+          </cell>
+          <cell r="AS40">
+            <v>32.409134999999999</v>
+          </cell>
+          <cell r="AT40">
+            <v>33.088357000000002</v>
+          </cell>
+          <cell r="AU40">
+            <v>35.323965000000001</v>
+          </cell>
+          <cell r="AV40">
+            <v>35.350349000000001</v>
+          </cell>
+          <cell r="AW40">
+            <v>36.444231000000002</v>
+          </cell>
+          <cell r="AX40">
+            <v>36.851675</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>United Kingdom</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v/>
+          </cell>
+          <cell r="D41">
+            <v>19.420157</v>
+          </cell>
+          <cell r="E41">
+            <v>20.6828</v>
+          </cell>
+          <cell r="F41">
+            <v>21.901274999999998</v>
+          </cell>
+          <cell r="G41">
+            <v>22.296828999999999</v>
+          </cell>
+          <cell r="H41">
+            <v>22.141249999999999</v>
+          </cell>
+          <cell r="I41">
+            <v>21.956088999999999</v>
+          </cell>
+          <cell r="J41">
+            <v>22.936997999999999</v>
+          </cell>
+          <cell r="K41">
+            <v>23.717866000000001</v>
+          </cell>
+          <cell r="L41">
+            <v>24.854901000000002</v>
+          </cell>
+          <cell r="M41">
+            <v>25.63598</v>
+          </cell>
+          <cell r="N41">
+            <v>25.881957</v>
+          </cell>
+          <cell r="O41">
+            <v>27.434764999999999</v>
+          </cell>
+          <cell r="P41">
+            <v>28.255758</v>
+          </cell>
+          <cell r="Q41">
+            <v>29.747527000000002</v>
+          </cell>
+          <cell r="R41">
+            <v>29.47963</v>
+          </cell>
+          <cell r="S41">
+            <v>29.827708999999999</v>
+          </cell>
+          <cell r="T41">
+            <v>30.605642</v>
+          </cell>
+          <cell r="U41">
+            <v>31.711760999999999</v>
+          </cell>
+          <cell r="V41">
+            <v>31.653344000000001</v>
+          </cell>
+          <cell r="W41">
+            <v>31.781728999999999</v>
+          </cell>
+          <cell r="X41">
+            <v>32.137721999999997</v>
+          </cell>
+          <cell r="Y41">
+            <v>32.791398999999998</v>
+          </cell>
+          <cell r="Z41">
+            <v>34.346769999999999</v>
+          </cell>
+          <cell r="AA41">
+            <v>35.605497999999997</v>
+          </cell>
+          <cell r="AB41">
+            <v>36.485936000000002</v>
+          </cell>
+          <cell r="AC41">
+            <v>36.886096000000002</v>
+          </cell>
+          <cell r="AD41">
+            <v>37.421754999999997</v>
+          </cell>
+          <cell r="AE41">
+            <v>38.761288999999998</v>
+          </cell>
+          <cell r="AF41">
+            <v>39.220377999999997</v>
+          </cell>
+          <cell r="AG41">
+            <v>40.118056000000003</v>
+          </cell>
+          <cell r="AH41">
+            <v>41.426206999999998</v>
+          </cell>
+          <cell r="AI41">
+            <v>42.13984</v>
+          </cell>
+          <cell r="AJ41">
+            <v>43.259779999999999</v>
+          </cell>
+          <cell r="AK41">
+            <v>44.574649999999998</v>
+          </cell>
+          <cell r="AL41">
+            <v>45.532992999999998</v>
+          </cell>
+          <cell r="AM41">
+            <v>45.933959000000002</v>
+          </cell>
+          <cell r="AN41">
+            <v>46.755361999999998</v>
+          </cell>
+          <cell r="AO41">
+            <v>47.408904999999997</v>
+          </cell>
+          <cell r="AP41">
+            <v>47.403899000000003</v>
+          </cell>
+          <cell r="AQ41">
+            <v>46.314615000000003</v>
+          </cell>
+          <cell r="AR41">
+            <v>47.307797000000001</v>
+          </cell>
+          <cell r="AS41">
+            <v>47.367665000000002</v>
+          </cell>
+          <cell r="AT41">
+            <v>47.134326000000001</v>
+          </cell>
+          <cell r="AU41">
+            <v>47.255738999999998</v>
+          </cell>
+          <cell r="AV41">
+            <v>47.383116000000001</v>
+          </cell>
+          <cell r="AW41">
+            <v>48.174447000000001</v>
+          </cell>
+          <cell r="AX41">
+            <v>47.911712999999999</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>United States</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v/>
+          </cell>
+          <cell r="D42">
+            <v>31.062792000000002</v>
+          </cell>
+          <cell r="E42">
+            <v>32.228337000000003</v>
+          </cell>
+          <cell r="F42">
+            <v>33.013564000000002</v>
+          </cell>
+          <cell r="G42">
+            <v>33.796317999999999</v>
+          </cell>
+          <cell r="H42">
+            <v>33.499291999999997</v>
+          </cell>
+          <cell r="I42">
+            <v>34.4191</v>
+          </cell>
+          <cell r="J42">
+            <v>35.252299000000001</v>
+          </cell>
+          <cell r="K42">
+            <v>35.623125000000002</v>
+          </cell>
+          <cell r="L42">
+            <v>35.914242999999999</v>
+          </cell>
+          <cell r="M42">
+            <v>36.078426999999998</v>
+          </cell>
+          <cell r="N42">
+            <v>36.090122999999998</v>
+          </cell>
+          <cell r="O42">
+            <v>36.947763000000002</v>
+          </cell>
+          <cell r="P42">
+            <v>36.788550999999998</v>
+          </cell>
+          <cell r="Q42">
+            <v>37.812756999999998</v>
+          </cell>
+          <cell r="R42">
+            <v>38.609133999999997</v>
+          </cell>
+          <cell r="S42">
+            <v>39.345213000000001</v>
+          </cell>
+          <cell r="T42">
+            <v>40.254255999999998</v>
+          </cell>
+          <cell r="U42">
+            <v>40.547767</v>
+          </cell>
+          <cell r="V42">
+            <v>41.027127</v>
+          </cell>
+          <cell r="W42">
+            <v>41.391727000000003</v>
+          </cell>
+          <cell r="X42">
+            <v>42.114311999999998</v>
+          </cell>
+          <cell r="Y42">
+            <v>42.680653</v>
+          </cell>
+          <cell r="Z42">
+            <v>44.160885</v>
+          </cell>
+          <cell r="AA42">
+            <v>44.326466000000003</v>
+          </cell>
+          <cell r="AB42">
+            <v>44.705762999999997</v>
+          </cell>
+          <cell r="AC42">
+            <v>44.819291999999997</v>
+          </cell>
+          <cell r="AD42">
+            <v>45.943849</v>
+          </cell>
+          <cell r="AE42">
+            <v>46.627598999999996</v>
+          </cell>
+          <cell r="AF42">
+            <v>47.662222</v>
+          </cell>
+          <cell r="AG42">
+            <v>49.01896</v>
+          </cell>
+          <cell r="AH42">
+            <v>50.372484999999998</v>
+          </cell>
+          <cell r="AI42">
+            <v>51.488591999999997</v>
+          </cell>
+          <cell r="AJ42">
+            <v>52.96311</v>
+          </cell>
+          <cell r="AK42">
+            <v>54.563789999999997</v>
+          </cell>
+          <cell r="AL42">
+            <v>55.976205</v>
+          </cell>
+          <cell r="AM42">
+            <v>57.076675999999999</v>
+          </cell>
+          <cell r="AN42">
+            <v>57.535662000000002</v>
+          </cell>
+          <cell r="AO42">
+            <v>58.102918000000003</v>
+          </cell>
+          <cell r="AP42">
+            <v>58.547611000000003</v>
+          </cell>
+          <cell r="AQ42">
+            <v>60.242055000000001</v>
+          </cell>
+          <cell r="AR42">
+            <v>61.925297999999998</v>
+          </cell>
+          <cell r="AS42">
+            <v>62.054943000000002</v>
+          </cell>
+          <cell r="AT42">
+            <v>62.202731999999997</v>
+          </cell>
+          <cell r="AU42">
+            <v>62.340646999999997</v>
+          </cell>
+          <cell r="AV42">
+            <v>62.688004999999997</v>
+          </cell>
+          <cell r="AW42">
+            <v>63.144329999999997</v>
+          </cell>
+          <cell r="AX42">
+            <v>63.260184000000002</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Euro area (19 countries)</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v/>
+          </cell>
+          <cell r="D43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="E43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="F43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="G43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="H43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="I43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="J43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="K43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="L43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="M43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="N43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="O43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="P43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Q43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="R43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="S43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="T43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="U43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="V43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="W43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="X43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Y43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Z43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AA43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AB43" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AC43">
+            <v>42.494174999999998</v>
+          </cell>
+          <cell r="AD43">
+            <v>43.008476999999999</v>
+          </cell>
+          <cell r="AE43">
+            <v>43.845922999999999</v>
+          </cell>
+          <cell r="AF43">
+            <v>44.325111999999997</v>
+          </cell>
+          <cell r="AG43">
+            <v>44.947817999999998</v>
+          </cell>
+          <cell r="AH43">
+            <v>46.020617000000001</v>
+          </cell>
+          <cell r="AI43">
+            <v>46.696317000000001</v>
+          </cell>
+          <cell r="AJ43">
+            <v>47.147858999999997</v>
+          </cell>
+          <cell r="AK43">
+            <v>47.380743000000002</v>
+          </cell>
+          <cell r="AL43">
+            <v>47.954377999999998</v>
+          </cell>
+          <cell r="AM43">
+            <v>48.374868999999997</v>
+          </cell>
+          <cell r="AN43">
+            <v>49.105015000000002</v>
+          </cell>
+          <cell r="AO43">
+            <v>49.587837999999998</v>
+          </cell>
+          <cell r="AP43">
+            <v>49.435451999999998</v>
+          </cell>
+          <cell r="AQ43">
+            <v>48.946392000000003</v>
+          </cell>
+          <cell r="AR43">
+            <v>50.193472999999997</v>
+          </cell>
+          <cell r="AS43">
+            <v>50.971545999999996</v>
+          </cell>
+          <cell r="AT43">
+            <v>51.337868</v>
+          </cell>
+          <cell r="AU43">
+            <v>51.905467999999999</v>
+          </cell>
+          <cell r="AV43">
+            <v>52.296563999999996</v>
+          </cell>
+          <cell r="AW43">
+            <v>52.818137</v>
+          </cell>
+          <cell r="AX43">
+            <v>53.122714999999999</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>European Union (28 countries)</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v/>
+          </cell>
+          <cell r="D44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="F44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="G44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="H44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="I44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="J44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="K44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="L44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="M44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="N44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="O44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="P44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Q44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="R44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="S44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="T44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="U44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="V44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="W44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="X44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Y44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Z44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AA44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AB44" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AC44">
+            <v>36.349043000000002</v>
+          </cell>
+          <cell r="AD44">
+            <v>36.805821000000002</v>
+          </cell>
+          <cell r="AE44">
+            <v>37.633020000000002</v>
+          </cell>
+          <cell r="AF44">
+            <v>38.151347999999999</v>
+          </cell>
+          <cell r="AG44">
+            <v>38.940258999999998</v>
+          </cell>
+          <cell r="AH44">
+            <v>40.114780000000003</v>
+          </cell>
+          <cell r="AI44">
+            <v>40.898640999999998</v>
+          </cell>
+          <cell r="AJ44">
+            <v>41.573</v>
+          </cell>
+          <cell r="AK44">
+            <v>42.151381000000001</v>
+          </cell>
+          <cell r="AL44">
+            <v>42.854135999999997</v>
+          </cell>
+          <cell r="AM44">
+            <v>43.323858000000001</v>
+          </cell>
+          <cell r="AN44">
+            <v>44.024557000000001</v>
+          </cell>
+          <cell r="AO44">
+            <v>44.473699000000003</v>
+          </cell>
+          <cell r="AP44">
+            <v>44.296984999999999</v>
+          </cell>
+          <cell r="AQ44">
+            <v>43.682622000000002</v>
+          </cell>
+          <cell r="AR44">
+            <v>45.012214999999998</v>
+          </cell>
+          <cell r="AS44">
+            <v>45.663421999999997</v>
+          </cell>
+          <cell r="AT44">
+            <v>46.083246000000003</v>
+          </cell>
+          <cell r="AU44">
+            <v>46.541440000000001</v>
+          </cell>
+          <cell r="AV44">
+            <v>46.837955000000001</v>
+          </cell>
+          <cell r="AW44">
+            <v>47.469363000000001</v>
+          </cell>
+          <cell r="AX44">
+            <v>47.741602999999998</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>G7</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v/>
+          </cell>
+          <cell r="D45">
+            <v>22.470132</v>
+          </cell>
+          <cell r="E45">
+            <v>23.403126</v>
+          </cell>
+          <cell r="F45">
+            <v>24.535048</v>
+          </cell>
+          <cell r="G45">
+            <v>25.556155</v>
+          </cell>
+          <cell r="H45">
+            <v>25.993154000000001</v>
+          </cell>
+          <cell r="I45">
+            <v>26.544311</v>
+          </cell>
+          <cell r="J45">
+            <v>27.450800999999998</v>
+          </cell>
+          <cell r="K45">
+            <v>28.210761000000002</v>
+          </cell>
+          <cell r="L45">
+            <v>29.030073000000002</v>
+          </cell>
+          <cell r="M45">
+            <v>29.674665000000001</v>
+          </cell>
+          <cell r="N45">
+            <v>29.922847000000001</v>
+          </cell>
+          <cell r="O45">
+            <v>30.724143000000002</v>
+          </cell>
+          <cell r="P45">
+            <v>31.013009</v>
+          </cell>
+          <cell r="Q45">
+            <v>31.843983000000001</v>
+          </cell>
+          <cell r="R45">
+            <v>32.667509000000003</v>
+          </cell>
+          <cell r="S45">
+            <v>33.616345000000003</v>
+          </cell>
+          <cell r="T45">
+            <v>34.300379</v>
+          </cell>
+          <cell r="U45">
+            <v>34.905776000000003</v>
+          </cell>
+          <cell r="V45">
+            <v>35.751159000000001</v>
+          </cell>
+          <cell r="W45">
+            <v>36.584366000000003</v>
+          </cell>
+          <cell r="X45">
+            <v>37.519908000000001</v>
+          </cell>
+          <cell r="Y45">
+            <v>38.181303999999997</v>
+          </cell>
+          <cell r="Z45">
+            <v>39.256964000000004</v>
+          </cell>
+          <cell r="AA45">
+            <v>39.914233000000003</v>
+          </cell>
+          <cell r="AB45">
+            <v>40.610833</v>
+          </cell>
+          <cell r="AC45">
+            <v>41.224541000000002</v>
+          </cell>
+          <cell r="AD45">
+            <v>42.035271999999999</v>
+          </cell>
+          <cell r="AE45">
+            <v>42.891036999999997</v>
+          </cell>
+          <cell r="AF45">
+            <v>43.704402000000002</v>
+          </cell>
+          <cell r="AG45">
+            <v>44.837952999999999</v>
+          </cell>
+          <cell r="AH45">
+            <v>46.120544000000002</v>
+          </cell>
+          <cell r="AI45">
+            <v>46.996243</v>
+          </cell>
+          <cell r="AJ45">
+            <v>48.031092000000001</v>
+          </cell>
+          <cell r="AK45">
+            <v>48.944423999999998</v>
+          </cell>
+          <cell r="AL45">
+            <v>49.968150000000001</v>
+          </cell>
+          <cell r="AM45">
+            <v>50.790928000000001</v>
+          </cell>
+          <cell r="AN45">
+            <v>51.301504000000001</v>
+          </cell>
+          <cell r="AO45">
+            <v>51.731130999999998</v>
+          </cell>
+          <cell r="AP45">
+            <v>51.865197999999999</v>
+          </cell>
+          <cell r="AQ45">
+            <v>52.134118000000001</v>
+          </cell>
+          <cell r="AR45">
+            <v>53.439912</v>
+          </cell>
+          <cell r="AS45">
+            <v>53.780881999999998</v>
+          </cell>
+          <cell r="AT45">
+            <v>53.975144999999998</v>
+          </cell>
+          <cell r="AU45">
+            <v>54.416254000000002</v>
+          </cell>
+          <cell r="AV45">
+            <v>54.763406000000003</v>
+          </cell>
+          <cell r="AW45">
+            <v>55.296835000000002</v>
+          </cell>
+          <cell r="AX45">
+            <v>55.450479000000001</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>OECD - Total</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v/>
+          </cell>
+          <cell r="D46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="E46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="F46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="G46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="H46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="I46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="J46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="K46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="L46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="M46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="N46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="O46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="P46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Q46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="R46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="S46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="T46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="U46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="V46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="W46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="X46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Y46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Z46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AA46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AB46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AC46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AD46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AE46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AF46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AG46" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AH46">
+            <v>38.928398999999999</v>
+          </cell>
+          <cell r="AI46">
+            <v>39.599634000000002</v>
+          </cell>
+          <cell r="AJ46">
+            <v>40.291601999999997</v>
+          </cell>
+          <cell r="AK46">
+            <v>41.205385</v>
+          </cell>
+          <cell r="AL46">
+            <v>42.119570000000003</v>
+          </cell>
+          <cell r="AM46">
+            <v>42.770392000000001</v>
+          </cell>
+          <cell r="AN46">
+            <v>43.408473000000001</v>
+          </cell>
+          <cell r="AO46">
+            <v>44.011028000000003</v>
+          </cell>
+          <cell r="AP46">
+            <v>43.978696999999997</v>
+          </cell>
+          <cell r="AQ46">
+            <v>44.094386</v>
+          </cell>
+          <cell r="AR46">
+            <v>44.872729</v>
+          </cell>
+          <cell r="AS46">
+            <v>45.365963999999998</v>
+          </cell>
+          <cell r="AT46">
+            <v>45.600405000000002</v>
+          </cell>
+          <cell r="AU46">
+            <v>46.008662000000001</v>
+          </cell>
+          <cell r="AV46">
+            <v>46.396144999999997</v>
+          </cell>
+          <cell r="AW46">
+            <v>46.888007000000002</v>
+          </cell>
+          <cell r="AX46">
+            <v>47.058177000000001</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Non-OECD Economies</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v xml:space="preserve">  Lithuania</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v/>
+          </cell>
+          <cell r="D47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="E47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="F47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="G47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="H47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="I47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="J47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="K47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="L47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="M47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="N47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="O47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="P47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Q47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="R47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="S47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="T47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="U47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="V47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="W47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="X47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Y47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Z47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AA47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AB47" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AC47">
+            <v>12.648383000000001</v>
+          </cell>
+          <cell r="AD47">
+            <v>13.194392000000001</v>
+          </cell>
+          <cell r="AE47">
+            <v>14.155772000000001</v>
+          </cell>
+          <cell r="AF47">
+            <v>14.928348</v>
+          </cell>
+          <cell r="AG47">
+            <v>15.559782</v>
+          </cell>
+          <cell r="AH47">
+            <v>15.776532</v>
+          </cell>
+          <cell r="AI47">
+            <v>17.613289000000002</v>
+          </cell>
+          <cell r="AJ47">
+            <v>18.440117999999998</v>
+          </cell>
+          <cell r="AK47">
+            <v>20.121627</v>
+          </cell>
+          <cell r="AL47">
+            <v>20.607619</v>
+          </cell>
+          <cell r="AM47">
+            <v>22.029229999999998</v>
+          </cell>
+          <cell r="AN47">
+            <v>23.795627</v>
+          </cell>
+          <cell r="AO47">
+            <v>25.503520999999999</v>
+          </cell>
+          <cell r="AP47">
+            <v>26.114429000000001</v>
+          </cell>
+          <cell r="AQ47">
+            <v>25.011009000000001</v>
+          </cell>
+          <cell r="AR47">
+            <v>26.539069000000001</v>
+          </cell>
+          <cell r="AS47">
+            <v>28.392574</v>
+          </cell>
+          <cell r="AT47">
+            <v>28.990445000000001</v>
+          </cell>
+          <cell r="AU47">
+            <v>29.868153</v>
+          </cell>
+          <cell r="AV47">
+            <v>30.444109999999998</v>
+          </cell>
+          <cell r="AW47">
+            <v>30.241458999999999</v>
+          </cell>
+          <cell r="AX47">
+            <v>29.937761999999999</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v xml:space="preserve">  Russia</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v/>
+          </cell>
+          <cell r="D48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="E48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="F48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="G48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="H48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="I48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="J48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="K48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="L48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="M48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="N48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="O48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="P48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Q48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="R48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="S48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="T48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="U48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="V48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="W48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="X48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Y48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Z48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AA48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AB48" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AC48">
+            <v>15.008386</v>
+          </cell>
+          <cell r="AD48">
+            <v>14.685993</v>
+          </cell>
+          <cell r="AE48">
+            <v>15.123996999999999</v>
+          </cell>
+          <cell r="AF48">
+            <v>14.780633</v>
+          </cell>
+          <cell r="AG48">
+            <v>14.466548</v>
+          </cell>
+          <cell r="AH48">
+            <v>15.259919999999999</v>
+          </cell>
+          <cell r="AI48">
+            <v>16.040078000000001</v>
+          </cell>
+          <cell r="AJ48">
+            <v>16.397293999999999</v>
+          </cell>
+          <cell r="AK48">
+            <v>17.580873</v>
+          </cell>
+          <cell r="AL48">
+            <v>18.568166999999999</v>
+          </cell>
+          <cell r="AM48">
+            <v>19.496426</v>
+          </cell>
+          <cell r="AN48">
+            <v>20.739187000000001</v>
+          </cell>
+          <cell r="AO48">
+            <v>21.989070000000002</v>
+          </cell>
+          <cell r="AP48">
+            <v>23.090202000000001</v>
+          </cell>
+          <cell r="AQ48">
+            <v>22.026517999999999</v>
+          </cell>
+          <cell r="AR48">
+            <v>22.822935000000001</v>
+          </cell>
+          <cell r="AS48">
+            <v>23.450568000000001</v>
+          </cell>
+          <cell r="AT48">
+            <v>24.037706</v>
+          </cell>
+          <cell r="AU48">
+            <v>24.544252</v>
+          </cell>
+          <cell r="AV48">
+            <v>24.612373000000002</v>
+          </cell>
+          <cell r="AW48">
+            <v>23.740548</v>
+          </cell>
+          <cell r="AX48">
+            <v>23.712527999999999</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v xml:space="preserve">  South Africa</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v/>
+          </cell>
+          <cell r="D49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="E49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="F49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="G49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="H49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="I49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="J49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="K49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="L49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="M49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="N49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="O49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="P49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Q49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="R49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="S49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="T49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="U49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="V49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="W49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="X49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Y49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="Z49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AA49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AB49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AC49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AD49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AE49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AF49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AG49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AH49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AI49">
+            <v>15.316877</v>
+          </cell>
+          <cell r="AJ49">
+            <v>15.983302</v>
+          </cell>
+          <cell r="AK49">
+            <v>17.127918999999999</v>
+          </cell>
+          <cell r="AL49">
+            <v>17.387013</v>
+          </cell>
+          <cell r="AM49">
+            <v>16.853946000000001</v>
+          </cell>
+          <cell r="AN49">
+            <v>17.548307999999999</v>
+          </cell>
+          <cell r="AO49">
+            <v>18.371884000000001</v>
+          </cell>
+          <cell r="AP49">
+            <v>17.795788000000002</v>
+          </cell>
+          <cell r="AQ49">
+            <v>18.284369999999999</v>
+          </cell>
+          <cell r="AR49">
+            <v>19.512412000000001</v>
+          </cell>
+          <cell r="AS49">
+            <v>19.584147000000002</v>
+          </cell>
+          <cell r="AT49">
+            <v>19.792757000000002</v>
+          </cell>
+          <cell r="AU49">
+            <v>19.791891</v>
+          </cell>
+          <cell r="AV49">
+            <v>19.781158000000001</v>
+          </cell>
+          <cell r="AW49" t="str">
+            <v>..</v>
+          </cell>
+          <cell r="AX49" t="str">
+            <v>..</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1724,13 +8333,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AW44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AW44" sqref="AW44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1879,7 +8488,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -2024,8 +8633,12 @@
       <c r="AV3">
         <v>53.375638000000002</v>
       </c>
+      <c r="AW3">
+        <f>VLOOKUP($A3,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>52.309275</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -2096,10 +8709,11 @@
         <v>53.534613999999998</v>
       </c>
       <c r="AW4">
-        <v>53.852331999999997</v>
+        <f>VLOOKUP($A4,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>53.926312000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -2244,8 +8858,12 @@
       <c r="AV5">
         <v>64.386054000000001</v>
       </c>
+      <c r="AW5">
+        <f>VLOOKUP($A5,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>64.741765000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -2391,10 +9009,11 @@
         <v>48.567483000000003</v>
       </c>
       <c r="AW6">
-        <v>48.868519999999997</v>
+        <f>VLOOKUP($A6,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>48.885367000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -2491,8 +9110,12 @@
       <c r="AV7">
         <v>23.540458999999998</v>
       </c>
+      <c r="AW7">
+        <f>VLOOKUP($A7,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>23.970137999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -2569,10 +9192,11 @@
         <v>34.444034000000002</v>
       </c>
       <c r="AW8">
-        <v>34.380814000000001</v>
+        <f>VLOOKUP($A8,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>34.685580999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2718,10 +9342,11 @@
         <v>63.355750999999998</v>
       </c>
       <c r="AW9">
-        <v>63.189923999999998</v>
+        <f>VLOOKUP($A9,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>63.636363000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -2777,10 +9402,11 @@
         <v>29.636329</v>
       </c>
       <c r="AW10">
-        <v>29.957920999999999</v>
+        <f>VLOOKUP($A10,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>30.345766999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -2926,10 +9552,11 @@
         <v>50.746856999999999</v>
       </c>
       <c r="AW11">
-        <v>50.921906</v>
+        <f>VLOOKUP($A11,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>51.412658999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -3075,10 +9702,11 @@
         <v>60.835096</v>
       </c>
       <c r="AW12">
-        <v>61.551721999999998</v>
+        <f>VLOOKUP($A12,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>59.952458999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -3224,10 +9852,11 @@
         <v>58.977290000000004</v>
       </c>
       <c r="AW13">
-        <v>59.518287000000001</v>
+        <f>VLOOKUP($A13,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>59.777555</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -3334,10 +9963,11 @@
         <v>31.322675</v>
       </c>
       <c r="AW14">
-        <v>30.890561999999999</v>
+        <f>VLOOKUP($A14,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>30.903010999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -3420,10 +10050,11 @@
         <v>31.295670999999999</v>
       </c>
       <c r="AW15">
-        <v>30.977722</v>
+        <f>VLOOKUP($A15,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>31.124690000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -3568,8 +10199,12 @@
       <c r="AV16">
         <v>40.462300999999997</v>
       </c>
+      <c r="AW16">
+        <f>VLOOKUP($A16,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>41.754883</v>
+      </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -3715,10 +10350,11 @@
         <v>77.916090999999994</v>
       </c>
       <c r="AW17">
-        <v>79.738921000000005</v>
+        <f>VLOOKUP($A17,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>83.215061000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -3830,8 +10466,12 @@
       <c r="AV18">
         <v>35.080494999999999</v>
       </c>
+      <c r="AW18">
+        <f>VLOOKUP($A18,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>35.170962000000003</v>
+      </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -3977,10 +10617,11 @@
         <v>47.739721000000003</v>
       </c>
       <c r="AW19">
-        <v>47.357757999999997</v>
+        <f>VLOOKUP($A19,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>47.625853999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -4125,8 +10766,12 @@
       <c r="AV20">
         <v>41.383783999999999</v>
       </c>
+      <c r="AW20">
+        <f>VLOOKUP($A20,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>41.546655999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -4271,8 +10916,12 @@
       <c r="AV21">
         <v>31.765274999999999</v>
       </c>
+      <c r="AW21">
+        <f>VLOOKUP($A21,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>33.056606000000002</v>
+      </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -4343,10 +10992,11 @@
         <v>25.931713999999999</v>
       </c>
       <c r="AW22">
-        <v>26.443408000000002</v>
+        <f>VLOOKUP($A22,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>26.449442999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -4492,10 +11142,11 @@
         <v>82.471107000000003</v>
       </c>
       <c r="AW23">
-        <v>83.564176000000003</v>
+        <f>VLOOKUP($A23,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>81.239189999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -4577,8 +11228,12 @@
       <c r="AV24">
         <v>18.483497</v>
       </c>
+      <c r="AW24">
+        <f>VLOOKUP($A24,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>18.466024999999998</v>
+      </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -4724,10 +11379,11 @@
         <v>61.499625999999999</v>
       </c>
       <c r="AW25">
-        <v>61.757908999999998</v>
+        <f>VLOOKUP($A25,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>61.650728999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -4872,8 +11528,12 @@
       <c r="AV26">
         <v>37.546781000000003</v>
       </c>
+      <c r="AW26">
+        <f>VLOOKUP($A26,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>37.460189</v>
+      </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -5019,10 +11679,11 @@
         <v>78.653041999999999</v>
       </c>
       <c r="AW27">
-        <v>79.074703999999997</v>
+        <f>VLOOKUP($A27,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>79.177222</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -5099,10 +11760,11 @@
         <v>28.449131000000001</v>
       </c>
       <c r="AW28">
-        <v>29.027100999999998</v>
+        <f>VLOOKUP($A28,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>29.080635000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -5248,10 +11910,11 @@
         <v>32.301222000000003</v>
       </c>
       <c r="AW29">
-        <v>32.698424000000003</v>
+        <f>VLOOKUP($A29,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>32.418081000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -5321,8 +11984,12 @@
       <c r="AV30">
         <v>38.308441999999999</v>
       </c>
+      <c r="AW30">
+        <f>VLOOKUP($A30,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>39.050142999999998</v>
+      </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -5393,10 +12060,11 @@
         <v>36.620078999999997</v>
       </c>
       <c r="AW31">
-        <v>36.907156999999998</v>
+        <f>VLOOKUP($A31,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>37.441091</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -5542,10 +12210,11 @@
         <v>46.847275000000003</v>
       </c>
       <c r="AW32">
-        <v>47.262951999999999</v>
+        <f>VLOOKUP($A32,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>47.175539999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -5691,10 +12360,11 @@
         <v>55.831474999999998</v>
       </c>
       <c r="AW33">
-        <v>56.360039999999998</v>
+        <f>VLOOKUP($A33,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>56.416024999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -5839,8 +12509,12 @@
       <c r="AV34">
         <v>56.543025999999998</v>
       </c>
+      <c r="AW34">
+        <f>VLOOKUP($A34,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>57.982734000000001</v>
+      </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -5985,8 +12659,12 @@
       <c r="AV35">
         <v>36.442270999999998</v>
       </c>
+      <c r="AW35">
+        <f>VLOOKUP($A35,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>36.851675</v>
+      </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -6132,10 +12810,11 @@
         <v>47.765054999999997</v>
       </c>
       <c r="AW36">
-        <v>47.522314999999999</v>
+        <f>VLOOKUP($A36,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>47.911712999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -6280,8 +12959,12 @@
       <c r="AV37">
         <v>62.887217999999997</v>
       </c>
+      <c r="AW37">
+        <f>VLOOKUP($A37,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>63.260184000000002</v>
+      </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -6352,10 +13035,11 @@
         <v>52.882466000000001</v>
       </c>
       <c r="AW38">
-        <v>53.198090999999998</v>
+        <f>VLOOKUP($A38,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>53.122714999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -6426,10 +13110,11 @@
         <v>47.393777</v>
       </c>
       <c r="AW39">
-        <v>47.669496000000002</v>
+        <f>VLOOKUP($A39,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>47.741602999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -6574,8 +13259,12 @@
       <c r="AV40">
         <v>55.200057999999999</v>
       </c>
+      <c r="AW40">
+        <f>VLOOKUP($A40,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>55.450479000000001</v>
+      </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -6630,8 +13319,12 @@
       <c r="AV41">
         <v>46.769486999999998</v>
       </c>
+      <c r="AW41">
+        <f>VLOOKUP($A41,'[1]OECD.Stat export'!$A$6:$AX$49,MATCH(AW$2,'[1]OECD.Stat export'!$A$6:$AX$6,0),0)</f>
+        <v>47.058177000000001</v>
+      </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>139</v>
       </c>
@@ -6701,11 +13394,11 @@
       <c r="AV42">
         <v>30.159641000000001</v>
       </c>
-      <c r="AW42">
-        <v>29.843335</v>
+      <c r="AW42" s="29">
+        <v>29.937761999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>140</v>
       </c>
@@ -6775,8 +13468,11 @@
       <c r="AV43">
         <v>23.491554000000001</v>
       </c>
+      <c r="AW43" s="30">
+        <v>23.712527999999999</v>
+      </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>141</v>
       </c>
@@ -6835,17 +13531,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="AX6" sqref="A6:AX49"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" customWidth="1"/>
+    <col min="1" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -6854,12 +13550,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
@@ -6915,7 +13611,7 @@
       <c r="AW3" s="24"/>
       <c r="AX3" s="25"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
@@ -6971,7 +13667,7 @@
       <c r="AW4" s="27"/>
       <c r="AX4" s="28"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
@@ -7027,7 +13723,7 @@
       <c r="AW5" s="27"/>
       <c r="AX5" s="28"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
@@ -7175,7 +13871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>56</v>
       </c>
@@ -7327,7 +14023,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>59</v>
       </c>
@@ -7477,7 +14173,7 @@
       </c>
       <c r="AX8" s="5"/>
     </row>
-    <row r="9" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>60</v>
       </c>
@@ -7579,7 +14275,7 @@
         <v>53.852331999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>61</v>
       </c>
@@ -7729,7 +14425,7 @@
       </c>
       <c r="AX10" s="5"/>
     </row>
-    <row r="11" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>62</v>
       </c>
@@ -7881,7 +14577,7 @@
         <v>48.868519999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>63</v>
       </c>
@@ -7999,7 +14695,7 @@
       </c>
       <c r="AX12" s="5"/>
     </row>
-    <row r="13" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>64</v>
       </c>
@@ -8105,7 +14801,7 @@
         <v>34.380814000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>65</v>
       </c>
@@ -8257,7 +14953,7 @@
         <v>63.189923999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>66</v>
       </c>
@@ -8349,7 +15045,7 @@
         <v>29.957920999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>67</v>
       </c>
@@ -8501,7 +15197,7 @@
         <v>50.921906</v>
       </c>
     </row>
-    <row r="17" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>68</v>
       </c>
@@ -8653,7 +15349,7 @@
         <v>61.551721999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>69</v>
       </c>
@@ -8805,7 +15501,7 @@
         <v>59.518287000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>70</v>
       </c>
@@ -8931,7 +15627,7 @@
         <v>30.890561999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>71</v>
       </c>
@@ -9041,7 +15737,7 @@
         <v>30.977722</v>
       </c>
     </row>
-    <row r="21" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>72</v>
       </c>
@@ -9191,7 +15887,7 @@
       </c>
       <c r="AX21" s="6"/>
     </row>
-    <row r="22" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>73</v>
       </c>
@@ -9343,7 +16039,7 @@
         <v>79.738921000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>74</v>
       </c>
@@ -9471,7 +16167,7 @@
       </c>
       <c r="AX23" s="6"/>
     </row>
-    <row r="24" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>75</v>
       </c>
@@ -9623,7 +16319,7 @@
         <v>47.357757999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>76</v>
       </c>
@@ -9773,7 +16469,7 @@
       </c>
       <c r="AX25" s="6"/>
     </row>
-    <row r="26" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>77</v>
       </c>
@@ -9923,7 +16619,7 @@
       </c>
       <c r="AX26" s="5"/>
     </row>
-    <row r="27" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>78</v>
       </c>
@@ -10025,7 +16721,7 @@
         <v>26.443408000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>79</v>
       </c>
@@ -10177,7 +16873,7 @@
         <v>83.564176000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>80</v>
       </c>
@@ -10285,7 +16981,7 @@
       </c>
       <c r="AX29" s="6"/>
     </row>
-    <row r="30" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>81</v>
       </c>
@@ -10437,7 +17133,7 @@
         <v>61.757908999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>82</v>
       </c>
@@ -10587,7 +17283,7 @@
       </c>
       <c r="AX31" s="6"/>
     </row>
-    <row r="32" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>83</v>
       </c>
@@ -10739,7 +17435,7 @@
         <v>79.074703999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>84</v>
       </c>
@@ -10845,7 +17541,7 @@
         <v>29.027100999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>85</v>
       </c>
@@ -10997,7 +17693,7 @@
         <v>32.698424000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>86</v>
       </c>
@@ -11097,7 +17793,7 @@
       </c>
       <c r="AX35" s="6"/>
     </row>
-    <row r="36" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>87</v>
       </c>
@@ -11199,7 +17895,7 @@
         <v>36.907156999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>88</v>
       </c>
@@ -11351,7 +18047,7 @@
         <v>47.262951999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>89</v>
       </c>
@@ -11503,7 +18199,7 @@
         <v>56.360039999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>90</v>
       </c>
@@ -11653,7 +18349,7 @@
       </c>
       <c r="AX39" s="6"/>
     </row>
-    <row r="40" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>91</v>
       </c>
@@ -11803,7 +18499,7 @@
       </c>
       <c r="AX40" s="5"/>
     </row>
-    <row r="41" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>92</v>
       </c>
@@ -11955,7 +18651,7 @@
         <v>47.522314999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>93</v>
       </c>
@@ -12105,7 +18801,7 @@
       </c>
       <c r="AX42" s="5"/>
     </row>
-    <row r="43" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>94</v>
       </c>
@@ -12207,7 +18903,7 @@
         <v>53.198090999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>95</v>
       </c>
@@ -12309,7 +19005,7 @@
         <v>47.669496000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>96</v>
       </c>
@@ -12459,7 +19155,7 @@
       </c>
       <c r="AX45" s="6"/>
     </row>
-    <row r="46" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>97</v>
       </c>
@@ -12549,7 +19245,7 @@
       </c>
       <c r="AX46" s="5"/>
     </row>
-    <row r="47" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>139</v>
       </c>
@@ -12651,7 +19347,7 @@
         <v>29.843335</v>
       </c>
     </row>
-    <row r="48" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>140</v>
       </c>
@@ -12751,7 +19447,7 @@
       </c>
       <c r="AX48" s="5"/>
     </row>
-    <row r="49" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" ht="14" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>141</v>
       </c>
@@ -12837,18 +19533,18 @@
       <c r="AW49" s="6"/>
       <c r="AX49" s="6"/>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="10"/>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A52" s="9"/>
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A53" s="9"/>
       <c r="B53" s="8"/>
     </row>
@@ -12878,213 +19574,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>138</v>
       </c>
